--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_11_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-280059.8840394877</v>
+        <v>-280772.4885135291</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169821.4284147701</v>
+        <v>169821.4284147699</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058547</v>
+        <v>632041.4518058546</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>163.5356211005887</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>188.5623770505816</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.53078872718779</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.643231388480087</v>
+        <v>44.13476116065514</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.5668145012118</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.188502199810756</v>
+        <v>9.188502199810785</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>133.3024230066204</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="T12" t="n">
-        <v>36.64054962134813</v>
+        <v>36.64054962134816</v>
       </c>
       <c r="U12" t="n">
-        <v>58.89840834437501</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="V12" t="n">
-        <v>62.31927159084708</v>
+        <v>62.31927159084711</v>
       </c>
       <c r="W12" t="n">
-        <v>188.5623770505816</v>
+        <v>162.4618934203419</v>
       </c>
       <c r="X12" t="n">
-        <v>38.98326511491544</v>
+        <v>38.98326511491547</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.05463680947045</v>
+        <v>45.05463680947048</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.09353465650169</v>
+        <v>25.09353465650172</v>
       </c>
       <c r="S13" t="n">
-        <v>57.10576830412749</v>
+        <v>57.10576830412753</v>
       </c>
       <c r="T13" t="n">
-        <v>45.43126511605266</v>
+        <v>45.43126511605269</v>
       </c>
       <c r="U13" t="n">
-        <v>110.3268994226098</v>
+        <v>110.3268994226099</v>
       </c>
       <c r="V13" t="n">
-        <v>66.77936585989474</v>
+        <v>66.77936585989477</v>
       </c>
       <c r="W13" t="n">
         <v>111.9810577647802</v>
       </c>
       <c r="X13" t="n">
-        <v>43.58980608368736</v>
+        <v>43.58980608368739</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.81162348961325</v>
+        <v>38.81162348961328</v>
       </c>
     </row>
     <row r="14">
@@ -1604,17 +1604,17 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>96.14235802475071</v>
+      </c>
+      <c r="E14" t="n">
         <v>188.5623770505816</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>168.6883080494463</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.66716559384213</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.53078872718783</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.17968824550884</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.1347611606552</v>
+        <v>44.13476116065514</v>
       </c>
       <c r="U14" t="n">
-        <v>71.82086528673118</v>
+        <v>71.82086528673111</v>
       </c>
       <c r="V14" t="n">
-        <v>130.188918743944</v>
+        <v>142.5501342845969</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.188502199810841</v>
+        <v>9.188502199810785</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1695,13 +1695,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>68.3102358069951</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.846506480668481</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.25780256851682</v>
+        <v>13.25780256851676</v>
       </c>
       <c r="T15" t="n">
         <v>188.5623770505816</v>
       </c>
       <c r="U15" t="n">
-        <v>130.4411521009711</v>
+        <v>58.89840834437504</v>
       </c>
       <c r="V15" t="n">
-        <v>62.31927159084717</v>
+        <v>62.31927159084711</v>
       </c>
       <c r="W15" t="n">
-        <v>88.37493425245651</v>
+        <v>88.37493425245646</v>
       </c>
       <c r="X15" t="n">
-        <v>38.98326511491553</v>
+        <v>38.98326511491547</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.05463680947054</v>
+        <v>45.05463680947048</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.09353465650177</v>
+        <v>25.09353465650172</v>
       </c>
       <c r="S16" t="n">
-        <v>57.10576830412758</v>
+        <v>57.10576830412753</v>
       </c>
       <c r="T16" t="n">
-        <v>45.43126511605274</v>
+        <v>45.43126511605269</v>
       </c>
       <c r="U16" t="n">
         <v>110.3268994226099</v>
       </c>
       <c r="V16" t="n">
-        <v>66.77936585989482</v>
+        <v>66.77936585989477</v>
       </c>
       <c r="W16" t="n">
         <v>111.9810577647802</v>
       </c>
       <c r="X16" t="n">
-        <v>43.58980608368745</v>
+        <v>43.58980608368739</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.81162348961334</v>
+        <v>38.81162348961328</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.45519181709099</v>
+        <v>23.45519181709085</v>
       </c>
       <c r="W17" t="n">
         <v>40.47187203370572</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1974,10 +1974,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>188.5623770505816</v>
+        <v>40.3519534646769</v>
       </c>
       <c r="U18" t="n">
-        <v>166.0857417061523</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>188.5623770505816</v>
@@ -1986,7 +1986,7 @@
         <v>188.5623770505816</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.66264858577216</v>
+        <v>76.6626485857721</v>
       </c>
       <c r="C20" t="n">
-        <v>52.78090558911824</v>
+        <v>52.78090558911759</v>
       </c>
       <c r="D20" t="n">
-        <v>40.34756785016612</v>
+        <v>40.34756785016631</v>
       </c>
       <c r="E20" t="n">
-        <v>74.05432026957499</v>
+        <v>74.05432026957493</v>
       </c>
       <c r="F20" t="n">
         <v>105.7746578479523</v>
@@ -2096,7 +2096,7 @@
         <v>121.4132451535436</v>
       </c>
       <c r="H20" t="n">
-        <v>49.59336558194019</v>
+        <v>49.59336558194013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.45519181709085</v>
+        <v>23.45519181709079</v>
       </c>
       <c r="W20" t="n">
-        <v>40.47187203370572</v>
+        <v>40.47187203370567</v>
       </c>
       <c r="X20" t="n">
-        <v>62.35812250264496</v>
+        <v>62.3581225026449</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.86097562638872</v>
+        <v>84.86097562638867</v>
       </c>
     </row>
     <row r="21">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2202,31 +2202,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>24.5305968750497</v>
       </c>
       <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
         <v>188.5623770505816</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>188.5623770505816</v>
       </c>
       <c r="Y21" t="n">
-        <v>182.8205469169342</v>
+        <v>188.5623770505816</v>
       </c>
     </row>
     <row r="22">
@@ -2403,19 +2403,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>80.16990582559993</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>129.3170652380105</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I24" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.04236090203121</v>
+        <v>14.04236090203122</v>
       </c>
       <c r="T26" t="n">
-        <v>8.99743381717756</v>
+        <v>8.997433817177551</v>
       </c>
       <c r="U26" t="n">
         <v>36.68353794325353</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>15.96543579255473</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>48.6126176942157</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T27" t="n">
-        <v>1.503222277870576</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2280576689302</v>
+        <v>23.76108100089746</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.18194424736953</v>
       </c>
       <c r="W27" t="n">
         <v>53.23760690897888</v>
@@ -2795,13 +2795,13 @@
         <v>136.7385207131461</v>
       </c>
       <c r="D29" t="n">
-        <v>124.3051829741945</v>
+        <v>124.3051829741946</v>
       </c>
       <c r="E29" t="n">
         <v>158.0119353936034</v>
       </c>
       <c r="F29" t="n">
-        <v>189.7322729719807</v>
+        <v>189.7322729719808</v>
       </c>
       <c r="G29" t="n">
         <v>205.3708602775721</v>
@@ -2810,7 +2810,7 @@
         <v>133.5509807059686</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52983825036446</v>
+        <v>27.52983825036449</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.04236090203119</v>
+        <v>14.04236090203121</v>
       </c>
       <c r="T29" t="n">
-        <v>8.997433817177523</v>
+        <v>8.99743381717756</v>
       </c>
       <c r="U29" t="n">
-        <v>36.6835379432535</v>
+        <v>36.68353794325353</v>
       </c>
       <c r="V29" t="n">
         <v>107.4128069411193</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4294871577341</v>
+        <v>124.4294871577342</v>
       </c>
       <c r="X29" t="n">
         <v>146.3157376266734</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.8185907504171</v>
+        <v>168.8185907504172</v>
       </c>
     </row>
     <row r="30">
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>94.32132289115482</v>
       </c>
       <c r="T30" t="n">
-        <v>1.503222277870548</v>
+        <v>1.503222277870577</v>
       </c>
       <c r="U30" t="n">
-        <v>23.76108100089743</v>
+        <v>23.76108100089746</v>
       </c>
       <c r="V30" t="n">
-        <v>27.1819442473695</v>
+        <v>27.18194424736953</v>
       </c>
       <c r="W30" t="n">
-        <v>53.23760690897885</v>
+        <v>53.23760690897888</v>
       </c>
       <c r="X30" t="n">
-        <v>144.4401523881176</v>
+        <v>3.845937771437889</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.917309465992872</v>
+        <v>9.917309465992901</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.96844096064992</v>
+        <v>21.96844096064995</v>
       </c>
       <c r="T31" t="n">
-        <v>10.29393777257508</v>
+        <v>10.29393777257511</v>
       </c>
       <c r="U31" t="n">
-        <v>75.18957207913225</v>
+        <v>75.18957207913228</v>
       </c>
       <c r="V31" t="n">
-        <v>31.64203851641716</v>
+        <v>31.64203851641719</v>
       </c>
       <c r="W31" t="n">
-        <v>76.84373042130258</v>
+        <v>76.84373042130261</v>
       </c>
       <c r="X31" t="n">
-        <v>8.452478740209784</v>
+        <v>8.452478740209813</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.674296146135674</v>
+        <v>3.674296146135703</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.04236090203118</v>
+        <v>14.04236090203119</v>
       </c>
       <c r="T32" t="n">
-        <v>8.997433817177532</v>
+        <v>8.997433817177523</v>
       </c>
       <c r="U32" t="n">
         <v>36.6835379432535</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,10 +3117,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>26.73309291925505</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>44.66014819699246</v>
       </c>
       <c r="T33" t="n">
         <v>1.503222277870548</v>
@@ -3171,10 +3171,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>3.84593777143786</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>9.917309465992872</v>
       </c>
     </row>
     <row r="34">
@@ -3351,10 +3351,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>158.6647413378074</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>201.9007169263351</v>
+        <v>260.458394474629</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.027563532976</v>
+        <v>102.0275635329761</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14582053632154</v>
+        <v>78.14582053632159</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71248279737</v>
+        <v>65.71248279737006</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41923521677887</v>
+        <v>99.41923521677893</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1395727951562</v>
+        <v>131.1395727951563</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7781601007475</v>
+        <v>146.7781601007476</v>
       </c>
       <c r="H38" t="n">
-        <v>74.95828052914408</v>
+        <v>74.95828052914413</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82010676429474</v>
+        <v>48.82010676429479</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83678698090961</v>
+        <v>65.83678698090966</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72303744984885</v>
+        <v>87.7230374498489</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.2258905735926</v>
+        <v>110.2258905735927</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,13 +3591,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,19 +3630,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T39" t="n">
-        <v>14.12970607617867</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>172.085007716357</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>260.458394474629</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.5968719023077</v>
+        <v>16.59687190230776</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25103024447805</v>
+        <v>18.2510302444781</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.153699692889042</v>
+        <v>9.153699692889035</v>
       </c>
       <c r="V41" t="n">
         <v>79.88296869075481</v>
@@ -3822,19 +3822,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7337882414754</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3870,13 +3870,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>188.8482050309419</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>143.8821133170428</v>
       </c>
       <c r="W42" t="n">
         <v>25.70776865861438</v>
@@ -4040,7 +4040,7 @@
         <v>96.89964890736968</v>
       </c>
       <c r="X44" t="n">
-        <v>118.7858993763089</v>
+        <v>118.7858993763091</v>
       </c>
       <c r="Y44" t="n">
         <v>141.2887525000527</v>
@@ -4056,19 +4056,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4098,28 +4098,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.846506480668474</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5874518930719</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>199.1412047021568</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>166.5120826447178</v>
       </c>
       <c r="W45" t="n">
         <v>25.70776865861438</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>557.072125940648</v>
+        <v>366.605078414808</v>
       </c>
       <c r="C11" t="n">
-        <v>557.072125940648</v>
+        <v>366.605078414808</v>
       </c>
       <c r="D11" t="n">
-        <v>396.0190852157266</v>
+        <v>205.5520376898866</v>
       </c>
       <c r="E11" t="n">
-        <v>396.0190852157266</v>
+        <v>205.5520376898866</v>
       </c>
       <c r="F11" t="n">
         <v>205.5520376898866</v>
@@ -5039,52 +5039,52 @@
         <v>15.08499016404653</v>
       </c>
       <c r="J11" t="n">
-        <v>95.77025947737422</v>
+        <v>115.6457740567086</v>
       </c>
       <c r="K11" t="n">
-        <v>265.6990072855934</v>
+        <v>115.6457740567086</v>
       </c>
       <c r="L11" t="n">
-        <v>452.3757605656692</v>
+        <v>302.3225273367844</v>
       </c>
       <c r="M11" t="n">
-        <v>533.2960712888211</v>
+        <v>383.2428380599362</v>
       </c>
       <c r="N11" t="n">
-        <v>719.9728245688968</v>
+        <v>479.8050985580619</v>
       </c>
       <c r="O11" t="n">
-        <v>754.2495082023265</v>
+        <v>666.4818518381377</v>
       </c>
       <c r="P11" t="n">
-        <v>754.2495082023265</v>
+        <v>666.4818518381377</v>
       </c>
       <c r="Q11" t="n">
         <v>754.2495082023265</v>
       </c>
       <c r="R11" t="n">
-        <v>754.2495082023265</v>
+        <v>737.5517418112278</v>
       </c>
       <c r="S11" t="n">
-        <v>754.2495082023265</v>
+        <v>737.5517418112278</v>
       </c>
       <c r="T11" t="n">
-        <v>747.539173466488</v>
+        <v>692.9711749822832</v>
       </c>
       <c r="U11" t="n">
-        <v>747.539173466488</v>
+        <v>692.9711749822832</v>
       </c>
       <c r="V11" t="n">
-        <v>747.539173466488</v>
+        <v>692.9711749822832</v>
       </c>
       <c r="W11" t="n">
-        <v>747.539173466488</v>
+        <v>531.7925744760087</v>
       </c>
       <c r="X11" t="n">
-        <v>747.539173466488</v>
+        <v>531.7925744760087</v>
       </c>
       <c r="Y11" t="n">
-        <v>557.072125940648</v>
+        <v>531.7925744760087</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>184.7940218001467</v>
+        <v>24.36630551739076</v>
       </c>
       <c r="C12" t="n">
-        <v>175.5127064468024</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D12" t="n">
-        <v>175.5127064468024</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E12" t="n">
-        <v>175.5127064468024</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F12" t="n">
         <v>15.08499016404653</v>
@@ -5121,13 +5121,13 @@
         <v>15.08499016404653</v>
       </c>
       <c r="K12" t="n">
-        <v>53.07705719635122</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L12" t="n">
         <v>170.4486221681695</v>
       </c>
       <c r="M12" t="n">
-        <v>352.1703666486677</v>
+        <v>352.1703666486678</v>
       </c>
       <c r="N12" t="n">
         <v>538.8471199287436</v>
@@ -5145,25 +5145,25 @@
         <v>754.2495082023265</v>
       </c>
       <c r="S12" t="n">
-        <v>619.6005960744271</v>
+        <v>563.7824606764865</v>
       </c>
       <c r="T12" t="n">
-        <v>582.5899398912472</v>
+        <v>526.7718044933065</v>
       </c>
       <c r="U12" t="n">
-        <v>523.0965981292522</v>
+        <v>336.3047569674665</v>
       </c>
       <c r="V12" t="n">
-        <v>460.1478389465785</v>
+        <v>273.3559977847926</v>
       </c>
       <c r="W12" t="n">
-        <v>269.6807914207384</v>
+        <v>109.2530751379826</v>
       </c>
       <c r="X12" t="n">
-        <v>230.3037559511269</v>
+        <v>69.87603966837105</v>
       </c>
       <c r="Y12" t="n">
-        <v>184.7940218001467</v>
+        <v>24.36630551739076</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.79059153703773</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C13" t="n">
-        <v>27.54433520609471</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D13" t="n">
-        <v>60.35986428920072</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E13" t="n">
-        <v>60.35986428920072</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F13" t="n">
-        <v>60.35986428920072</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G13" t="n">
-        <v>69.89259916105064</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H13" t="n">
-        <v>82.27412500165829</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I13" t="n">
-        <v>95.6205268505686</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J13" t="n">
-        <v>95.6205268505686</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K13" t="n">
-        <v>116.3737444770937</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L13" t="n">
-        <v>261.1119839323517</v>
+        <v>159.8232296193044</v>
       </c>
       <c r="M13" t="n">
-        <v>261.1119839323517</v>
+        <v>210.4979521971122</v>
       </c>
       <c r="N13" t="n">
-        <v>261.1119839323517</v>
+        <v>210.4979521971122</v>
       </c>
       <c r="O13" t="n">
-        <v>400.5753329514393</v>
+        <v>349.9613012161998</v>
       </c>
       <c r="P13" t="n">
-        <v>519.2459201612862</v>
+        <v>468.6318884260467</v>
       </c>
       <c r="Q13" t="n">
-        <v>519.2459201612862</v>
+        <v>519.2459201612863</v>
       </c>
       <c r="R13" t="n">
-        <v>493.8989154577491</v>
+        <v>493.8989154577492</v>
       </c>
       <c r="S13" t="n">
-        <v>436.2163212111557</v>
+        <v>436.2163212111558</v>
       </c>
       <c r="T13" t="n">
-        <v>390.3261544272641</v>
+        <v>390.3261544272642</v>
       </c>
       <c r="U13" t="n">
-        <v>278.8848418791733</v>
+        <v>278.8848418791735</v>
       </c>
       <c r="V13" t="n">
-        <v>211.4309369701887</v>
+        <v>211.4309369701888</v>
       </c>
       <c r="W13" t="n">
-        <v>98.31875740980473</v>
+        <v>98.31875740980479</v>
       </c>
       <c r="X13" t="n">
-        <v>54.28865025456497</v>
+        <v>54.288650254565</v>
       </c>
       <c r="Y13" t="n">
         <v>15.08499016404653</v>
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>248.7773877835298</v>
+        <v>302.6655306441803</v>
       </c>
       <c r="C14" t="n">
-        <v>248.7773877835298</v>
+        <v>302.6655306441803</v>
       </c>
       <c r="D14" t="n">
-        <v>248.7773877835298</v>
+        <v>205.5520376898866</v>
       </c>
       <c r="E14" t="n">
-        <v>248.7773877835298</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F14" t="n">
-        <v>248.7773877835298</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G14" t="n">
-        <v>248.7773877835298</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H14" t="n">
-        <v>78.38515743055373</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I14" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="J14" t="n">
-        <v>115.6457740567085</v>
+        <v>45.40662614627797</v>
       </c>
       <c r="K14" t="n">
-        <v>243.9492856574414</v>
+        <v>215.3353739544972</v>
       </c>
       <c r="L14" t="n">
-        <v>290.7226238877354</v>
+        <v>402.012127234573</v>
       </c>
       <c r="M14" t="n">
-        <v>371.6429346108872</v>
+        <v>482.9324379577248</v>
       </c>
       <c r="N14" t="n">
         <v>558.319687890963</v>
@@ -5300,28 +5300,28 @@
         <v>754.2495082023265</v>
       </c>
       <c r="R14" t="n">
-        <v>737.5517418112277</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="S14" t="n">
-        <v>687.8752890379864</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="T14" t="n">
-        <v>643.2947222090417</v>
+        <v>709.6689413733819</v>
       </c>
       <c r="U14" t="n">
-        <v>570.7483936365859</v>
+        <v>637.1226128009263</v>
       </c>
       <c r="V14" t="n">
-        <v>439.2444353093698</v>
+        <v>493.1325781700203</v>
       </c>
       <c r="W14" t="n">
-        <v>439.2444353093698</v>
+        <v>493.1325781700203</v>
       </c>
       <c r="X14" t="n">
-        <v>439.2444353093698</v>
+        <v>493.1325781700203</v>
       </c>
       <c r="Y14" t="n">
-        <v>439.2444353093698</v>
+        <v>302.6655306441803</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>174.6131991433086</v>
+        <v>253.7942599890306</v>
       </c>
       <c r="C15" t="n">
-        <v>165.3318837899643</v>
+        <v>244.5129446356864</v>
       </c>
       <c r="D15" t="n">
-        <v>165.3318837899643</v>
+        <v>244.5129446356864</v>
       </c>
       <c r="E15" t="n">
-        <v>165.3318837899643</v>
+        <v>244.5129446356864</v>
       </c>
       <c r="F15" t="n">
-        <v>165.3318837899643</v>
+        <v>84.08522835293047</v>
       </c>
       <c r="G15" t="n">
-        <v>15.08499016404653</v>
+        <v>84.08522835293047</v>
       </c>
       <c r="H15" t="n">
         <v>15.08499016404653</v>
@@ -5376,31 +5376,31 @@
         <v>754.2495082023265</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.3338450905402</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R15" t="n">
-        <v>747.3338450905402</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="S15" t="n">
-        <v>733.9421253243615</v>
+        <v>740.857788436148</v>
       </c>
       <c r="T15" t="n">
-        <v>543.4750777985215</v>
+        <v>550.390740910308</v>
       </c>
       <c r="U15" t="n">
-        <v>411.7163383025911</v>
+        <v>490.897399148313</v>
       </c>
       <c r="V15" t="n">
-        <v>348.7675791199172</v>
+        <v>427.9486399656391</v>
       </c>
       <c r="W15" t="n">
-        <v>259.4999687639005</v>
+        <v>338.6810296096225</v>
       </c>
       <c r="X15" t="n">
-        <v>220.1229332942889</v>
+        <v>299.3039941400109</v>
       </c>
       <c r="Y15" t="n">
-        <v>174.6131991433086</v>
+        <v>253.7942599890306</v>
       </c>
     </row>
     <row r="16">
@@ -5413,70 +5413,70 @@
         <v>15.08499016404653</v>
       </c>
       <c r="C16" t="n">
-        <v>26.83873383310343</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D16" t="n">
-        <v>26.83873383310343</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E16" t="n">
-        <v>63.12570686431022</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="F16" t="n">
-        <v>63.12570686431022</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="G16" t="n">
-        <v>63.12570686431022</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="H16" t="n">
-        <v>63.12570686431022</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I16" t="n">
-        <v>63.12570686431022</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J16" t="n">
-        <v>120.6453979309217</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K16" t="n">
-        <v>120.6453979309217</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L16" t="n">
-        <v>189.747069692436</v>
+        <v>50.28372067334774</v>
       </c>
       <c r="M16" t="n">
-        <v>189.747069692436</v>
+        <v>50.28372067334774</v>
       </c>
       <c r="N16" t="n">
-        <v>349.9613012162004</v>
+        <v>210.4979521971122</v>
       </c>
       <c r="O16" t="n">
-        <v>349.9613012162004</v>
+        <v>349.9613012161998</v>
       </c>
       <c r="P16" t="n">
-        <v>468.6318884260472</v>
+        <v>468.6318884260467</v>
       </c>
       <c r="Q16" t="n">
-        <v>519.2459201612868</v>
+        <v>519.2459201612863</v>
       </c>
       <c r="R16" t="n">
-        <v>493.8989154577497</v>
+        <v>493.8989154577492</v>
       </c>
       <c r="S16" t="n">
-        <v>436.2163212111562</v>
+        <v>436.2163212111558</v>
       </c>
       <c r="T16" t="n">
-        <v>390.3261544272645</v>
+        <v>390.3261544272642</v>
       </c>
       <c r="U16" t="n">
-        <v>278.8848418791737</v>
+        <v>278.8848418791735</v>
       </c>
       <c r="V16" t="n">
-        <v>211.430936970189</v>
+        <v>211.4309369701888</v>
       </c>
       <c r="W16" t="n">
-        <v>98.3187574098049</v>
+        <v>98.31875740980479</v>
       </c>
       <c r="X16" t="n">
-        <v>54.28865025456506</v>
+        <v>54.288650254565</v>
       </c>
       <c r="Y16" t="n">
         <v>15.08499016404653</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.5335379340406</v>
+        <v>463.5335379340412</v>
       </c>
       <c r="C17" t="n">
-        <v>410.2194918844269</v>
+        <v>410.2194918844274</v>
       </c>
       <c r="D17" t="n">
-        <v>369.464372843855</v>
+        <v>369.4643728438555</v>
       </c>
       <c r="E17" t="n">
-        <v>294.6620291372137</v>
+        <v>294.6620291372141</v>
       </c>
       <c r="F17" t="n">
-        <v>187.8189404019088</v>
+        <v>187.8189404019087</v>
       </c>
       <c r="G17" t="n">
         <v>65.179298832673</v>
@@ -5510,55 +5510,55 @@
         <v>15.08499016404653</v>
       </c>
       <c r="I17" t="n">
-        <v>15.08499016404653</v>
+        <v>70.94848926897384</v>
       </c>
       <c r="J17" t="n">
-        <v>201.7617434441223</v>
+        <v>70.94848926897384</v>
       </c>
       <c r="K17" t="n">
-        <v>201.7617434441223</v>
+        <v>70.94848926897384</v>
       </c>
       <c r="L17" t="n">
-        <v>388.4384967241982</v>
+        <v>117.7218274992679</v>
       </c>
       <c r="M17" t="n">
-        <v>469.35880744735</v>
+        <v>198.6421382224197</v>
       </c>
       <c r="N17" t="n">
-        <v>544.7460573805881</v>
+        <v>274.0293881556578</v>
       </c>
       <c r="O17" t="n">
-        <v>731.4228106606639</v>
+        <v>308.3060717890875</v>
       </c>
       <c r="P17" t="n">
-        <v>731.4228106606639</v>
+        <v>308.3060717890875</v>
       </c>
       <c r="Q17" t="n">
-        <v>731.4228106606639</v>
+        <v>494.9828250691633</v>
       </c>
       <c r="R17" t="n">
-        <v>731.4228106606639</v>
+        <v>596.5213372720783</v>
       </c>
       <c r="S17" t="n">
-        <v>754.2495082023265</v>
+        <v>665.7374389518556</v>
       </c>
       <c r="T17" t="n">
-        <v>754.2495082023265</v>
+        <v>707.4481717933594</v>
       </c>
       <c r="U17" t="n">
         <v>754.2495082023265</v>
       </c>
       <c r="V17" t="n">
-        <v>730.55739525577</v>
+        <v>730.5573952557701</v>
       </c>
       <c r="W17" t="n">
-        <v>689.6767164338446</v>
+        <v>689.6767164338451</v>
       </c>
       <c r="X17" t="n">
-        <v>626.6887139059204</v>
+        <v>626.6887139059208</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.970556707548</v>
+        <v>540.9705567075484</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.08499016404653</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="C18" t="n">
-        <v>15.08499016404653</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="D18" t="n">
-        <v>15.08499016404653</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="E18" t="n">
-        <v>15.08499016404653</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="F18" t="n">
-        <v>15.08499016404653</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="G18" t="n">
-        <v>15.08499016404653</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="H18" t="n">
         <v>15.08499016404653</v>
@@ -5595,13 +5595,13 @@
         <v>15.08499016404653</v>
       </c>
       <c r="K18" t="n">
-        <v>53.07705719635122</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L18" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681697</v>
       </c>
       <c r="M18" t="n">
-        <v>352.1703666486677</v>
+        <v>352.1703666486678</v>
       </c>
       <c r="N18" t="n">
         <v>538.8471199287436</v>
@@ -5622,22 +5622,22 @@
         <v>754.2495082023265</v>
       </c>
       <c r="T18" t="n">
-        <v>563.7824606764865</v>
+        <v>713.4899592481074</v>
       </c>
       <c r="U18" t="n">
-        <v>396.0190852157266</v>
+        <v>713.4899592481074</v>
       </c>
       <c r="V18" t="n">
-        <v>205.5520376898866</v>
+        <v>523.0229117222674</v>
       </c>
       <c r="W18" t="n">
-        <v>15.08499016404653</v>
+        <v>332.5558641964274</v>
       </c>
       <c r="X18" t="n">
-        <v>15.08499016404653</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.08499016404653</v>
+        <v>142.0888166705873</v>
       </c>
     </row>
     <row r="19">
@@ -5726,61 +5726,61 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.5335379340414</v>
+        <v>463.5335379340415</v>
       </c>
       <c r="C20" t="n">
-        <v>410.2194918844275</v>
+        <v>410.2194918844277</v>
       </c>
       <c r="D20" t="n">
-        <v>369.4643728438556</v>
+        <v>369.4643728438557</v>
       </c>
       <c r="E20" t="n">
-        <v>294.6620291372142</v>
+        <v>294.6620291372143</v>
       </c>
       <c r="F20" t="n">
-        <v>187.8189404019088</v>
+        <v>187.818940401909</v>
       </c>
       <c r="G20" t="n">
-        <v>65.179298832673</v>
+        <v>65.17929883267294</v>
       </c>
       <c r="H20" t="n">
         <v>15.08499016404653</v>
       </c>
       <c r="I20" t="n">
-        <v>70.94848926897384</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J20" t="n">
-        <v>139.9871548196103</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K20" t="n">
-        <v>326.6639080996861</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="L20" t="n">
-        <v>373.4372463299801</v>
+        <v>201.7617434441223</v>
       </c>
       <c r="M20" t="n">
-        <v>454.3575570531319</v>
+        <v>282.6820541672741</v>
       </c>
       <c r="N20" t="n">
-        <v>529.7448069863701</v>
+        <v>358.0693041005123</v>
       </c>
       <c r="O20" t="n">
-        <v>564.0214906197998</v>
+        <v>392.345987733942</v>
       </c>
       <c r="P20" t="n">
-        <v>564.0214906197998</v>
+        <v>392.345987733942</v>
       </c>
       <c r="Q20" t="n">
-        <v>564.0214906197998</v>
+        <v>509.2843148258516</v>
       </c>
       <c r="R20" t="n">
-        <v>564.0214906197998</v>
+        <v>610.8228270287667</v>
       </c>
       <c r="S20" t="n">
-        <v>633.237592299577</v>
+        <v>680.0389287085441</v>
       </c>
       <c r="T20" t="n">
-        <v>707.4481717933594</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="U20" t="n">
         <v>754.2495082023265</v>
@@ -5789,13 +5789,13 @@
         <v>730.5573952557701</v>
       </c>
       <c r="W20" t="n">
-        <v>689.6767164338452</v>
+        <v>689.6767164338453</v>
       </c>
       <c r="X20" t="n">
         <v>626.6887139059211</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.9705567075486</v>
+        <v>540.9705567075487</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>188.6481940426321</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="C21" t="n">
-        <v>188.6481940426321</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="D21" t="n">
-        <v>188.6481940426321</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="E21" t="n">
         <v>15.08499016404653</v>
@@ -5832,49 +5832,49 @@
         <v>15.08499016404653</v>
       </c>
       <c r="K21" t="n">
-        <v>53.07705719635122</v>
+        <v>53.07705719635138</v>
       </c>
       <c r="L21" t="n">
-        <v>170.4486221681695</v>
+        <v>170.4486221681697</v>
       </c>
       <c r="M21" t="n">
-        <v>352.1703666486677</v>
+        <v>352.1703666486678</v>
       </c>
       <c r="N21" t="n">
-        <v>538.8471199287435</v>
+        <v>538.8471199287436</v>
       </c>
       <c r="O21" t="n">
-        <v>670.5904072110304</v>
+        <v>670.5904072110305</v>
       </c>
       <c r="P21" t="n">
         <v>754.2495082023265</v>
       </c>
       <c r="Q21" t="n">
-        <v>754.2495082023265</v>
+        <v>747.3338450905402</v>
       </c>
       <c r="R21" t="n">
-        <v>754.2495082023265</v>
+        <v>611.264513423435</v>
       </c>
       <c r="S21" t="n">
-        <v>754.2495082023265</v>
+        <v>611.264513423435</v>
       </c>
       <c r="T21" t="n">
-        <v>754.2495082023265</v>
+        <v>586.4861327415666</v>
       </c>
       <c r="U21" t="n">
-        <v>563.7824606764865</v>
+        <v>586.4861327415666</v>
       </c>
       <c r="V21" t="n">
-        <v>563.7824606764865</v>
+        <v>586.4861327415666</v>
       </c>
       <c r="W21" t="n">
-        <v>563.7824606764865</v>
+        <v>396.0190852157266</v>
       </c>
       <c r="X21" t="n">
-        <v>373.3154131506465</v>
+        <v>205.5520376898866</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.6481940426321</v>
+        <v>15.08499016404653</v>
       </c>
     </row>
     <row r="22">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.5335379340418</v>
+        <v>463.5335379340414</v>
       </c>
       <c r="C23" t="n">
-        <v>410.2194918844281</v>
+        <v>410.2194918844277</v>
       </c>
       <c r="D23" t="n">
-        <v>369.464372843856</v>
+        <v>369.4643728438559</v>
       </c>
       <c r="E23" t="n">
-        <v>294.6620291372143</v>
+        <v>294.6620291372145</v>
       </c>
       <c r="F23" t="n">
-        <v>187.8189404019089</v>
+        <v>187.8189404019092</v>
       </c>
       <c r="G23" t="n">
         <v>65.17929883267294</v>
@@ -5984,55 +5984,55 @@
         <v>15.08499016404653</v>
       </c>
       <c r="I23" t="n">
-        <v>70.94848926897392</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="J23" t="n">
-        <v>70.94848926897392</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="K23" t="n">
-        <v>70.94848926897392</v>
+        <v>201.7617434441223</v>
       </c>
       <c r="L23" t="n">
-        <v>117.7218274992679</v>
+        <v>307.7724089526538</v>
       </c>
       <c r="M23" t="n">
-        <v>198.6421382224198</v>
+        <v>388.6927196758056</v>
       </c>
       <c r="N23" t="n">
-        <v>274.0293881556579</v>
+        <v>464.0799696090438</v>
       </c>
       <c r="O23" t="n">
-        <v>460.7061414357337</v>
+        <v>498.3566532424734</v>
       </c>
       <c r="P23" t="n">
-        <v>633.2375922995769</v>
+        <v>685.0334065225492</v>
       </c>
       <c r="Q23" t="n">
-        <v>633.2375922995769</v>
+        <v>685.0334065225492</v>
       </c>
       <c r="R23" t="n">
-        <v>633.2375922995769</v>
+        <v>685.0334065225492</v>
       </c>
       <c r="S23" t="n">
-        <v>633.2375922995769</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="T23" t="n">
-        <v>707.4481717933594</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="U23" t="n">
-        <v>754.2495082023266</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="V23" t="n">
-        <v>730.5573952557703</v>
+        <v>730.5573952557702</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6767164338456</v>
+        <v>689.6767164338453</v>
       </c>
       <c r="X23" t="n">
-        <v>626.6887139059214</v>
+        <v>626.6887139059211</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.9705567075489</v>
+        <v>540.9705567075486</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>427.7131290093814</v>
+        <v>373.3154131506465</v>
       </c>
       <c r="C24" t="n">
-        <v>427.7131290093814</v>
+        <v>373.3154131506465</v>
       </c>
       <c r="D24" t="n">
-        <v>427.7131290093814</v>
+        <v>373.3154131506465</v>
       </c>
       <c r="E24" t="n">
-        <v>254.1499251307959</v>
+        <v>292.3357102965051</v>
       </c>
       <c r="F24" t="n">
-        <v>254.1499251307959</v>
+        <v>292.3357102965051</v>
       </c>
       <c r="G24" t="n">
-        <v>123.5266269105832</v>
+        <v>142.0888166705873</v>
       </c>
       <c r="H24" t="n">
-        <v>123.5266269105832</v>
+        <v>15.08499016404653</v>
       </c>
       <c r="I24" t="n">
         <v>15.08499016404653</v>
@@ -6069,49 +6069,49 @@
         <v>15.08499016404653</v>
       </c>
       <c r="K24" t="n">
-        <v>53.07705719635123</v>
+        <v>53.07705719635121</v>
       </c>
       <c r="L24" t="n">
-        <v>170.4486221681696</v>
+        <v>170.4486221681695</v>
       </c>
       <c r="M24" t="n">
-        <v>352.1703666486678</v>
+        <v>352.1703666486677</v>
       </c>
       <c r="N24" t="n">
-        <v>538.8471199287437</v>
+        <v>538.8471199287435</v>
       </c>
       <c r="O24" t="n">
-        <v>670.5904072110307</v>
+        <v>670.5904072110304</v>
       </c>
       <c r="P24" t="n">
-        <v>754.2495082023266</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="Q24" t="n">
-        <v>754.2495082023266</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="R24" t="n">
-        <v>618.1801765352214</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="S24" t="n">
-        <v>618.1801765352214</v>
+        <v>754.2495082023265</v>
       </c>
       <c r="T24" t="n">
-        <v>427.7131290093814</v>
+        <v>563.7824606764865</v>
       </c>
       <c r="U24" t="n">
-        <v>427.7131290093814</v>
+        <v>563.7824606764865</v>
       </c>
       <c r="V24" t="n">
-        <v>427.7131290093814</v>
+        <v>373.3154131506465</v>
       </c>
       <c r="W24" t="n">
-        <v>427.7131290093814</v>
+        <v>373.3154131506465</v>
       </c>
       <c r="X24" t="n">
-        <v>427.7131290093814</v>
+        <v>373.3154131506465</v>
       </c>
       <c r="Y24" t="n">
-        <v>427.7131290093814</v>
+        <v>373.3154131506465</v>
       </c>
     </row>
     <row r="25">
@@ -6203,37 +6203,37 @@
         <v>1021.012157971339</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8924400792725</v>
+        <v>882.8924400792721</v>
       </c>
       <c r="D26" t="n">
-        <v>757.3316491962477</v>
+        <v>757.3316491962473</v>
       </c>
       <c r="E26" t="n">
-        <v>597.7236336471533</v>
+        <v>597.7236336471528</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0748730693949</v>
+        <v>406.0748730693946</v>
       </c>
       <c r="G26" t="n">
-        <v>198.629559657706</v>
+        <v>198.6295596577056</v>
       </c>
       <c r="H26" t="n">
-        <v>63.72957914662743</v>
+        <v>63.72957914662744</v>
       </c>
       <c r="I26" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2683996847215</v>
+        <v>171.2683996847217</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9831015629835</v>
+        <v>375.9831015629836</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0887466946299</v>
+        <v>634.08874669463</v>
       </c>
       <c r="M26" t="n">
-        <v>926.3413643191343</v>
+        <v>926.3413643191342</v>
       </c>
       <c r="N26" t="n">
         <v>1213.060921153725</v>
@@ -6242,13 +6242,13 @@
         <v>1458.669911688507</v>
       </c>
       <c r="P26" t="n">
-        <v>1655.109002436483</v>
+        <v>1655.109002436484</v>
       </c>
       <c r="Q26" t="n">
         <v>1777.662612870715</v>
       </c>
       <c r="R26" t="n">
-        <v>1796.083086100841</v>
+        <v>1796.083086100842</v>
       </c>
       <c r="S26" t="n">
         <v>1781.898883169497</v>
@@ -6269,7 +6269,7 @@
         <v>1353.778677628125</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.2548485873</v>
+        <v>1183.254848587299</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>241.4606388098155</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C27" t="n">
-        <v>52.04836454277918</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D27" t="n">
-        <v>52.04836454277918</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="E27" t="n">
-        <v>52.04836454277918</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="F27" t="n">
-        <v>52.04836454277918</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="G27" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="H27" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="I27" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="J27" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="K27" t="n">
-        <v>73.91372875432151</v>
+        <v>73.91372875432153</v>
       </c>
       <c r="L27" t="n">
         <v>191.2852937261399</v>
@@ -6327,28 +6327,28 @@
         <v>793.3606943740707</v>
       </c>
       <c r="R27" t="n">
-        <v>793.3606943740707</v>
+        <v>744.2570401374892</v>
       </c>
       <c r="S27" t="n">
-        <v>793.3606943740707</v>
+        <v>550.7343614576185</v>
       </c>
       <c r="T27" t="n">
-        <v>791.8422880327873</v>
+        <v>333.5927463607465</v>
       </c>
       <c r="U27" t="n">
-        <v>552.2179873571002</v>
+        <v>309.5916544406481</v>
       </c>
       <c r="V27" t="n">
-        <v>309.1382692607343</v>
+        <v>282.1351450998708</v>
       </c>
       <c r="W27" t="n">
-        <v>255.3629087466142</v>
+        <v>228.3597845857507</v>
       </c>
       <c r="X27" t="n">
-        <v>251.4781231188992</v>
+        <v>224.4749989580357</v>
       </c>
       <c r="Y27" t="n">
-        <v>241.4606388098155</v>
+        <v>214.4575146489519</v>
       </c>
     </row>
     <row r="28">
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="C28" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201684</v>
       </c>
       <c r="D28" t="n">
-        <v>35.92166172201683</v>
+        <v>103.5231448751656</v>
       </c>
       <c r="E28" t="n">
-        <v>35.92166172201683</v>
+        <v>103.5231448751656</v>
       </c>
       <c r="F28" t="n">
-        <v>35.92166172201683</v>
+        <v>112.8332968425541</v>
       </c>
       <c r="G28" t="n">
-        <v>35.92166172201683</v>
+        <v>112.8332968425541</v>
       </c>
       <c r="H28" t="n">
-        <v>35.92166172201683</v>
+        <v>112.8332968425541</v>
       </c>
       <c r="I28" t="n">
-        <v>35.92166172201683</v>
+        <v>112.8332968425541</v>
       </c>
       <c r="J28" t="n">
-        <v>35.92166172201683</v>
+        <v>112.8332968425541</v>
       </c>
       <c r="K28" t="n">
-        <v>35.92166172201683</v>
+        <v>112.8332968425541</v>
       </c>
       <c r="L28" t="n">
-        <v>35.92166172201683</v>
+        <v>112.8332968425541</v>
       </c>
       <c r="M28" t="n">
-        <v>71.28965252863654</v>
+        <v>112.8332968425541</v>
       </c>
       <c r="N28" t="n">
-        <v>266.2898381224438</v>
+        <v>112.8332968425541</v>
       </c>
       <c r="O28" t="n">
-        <v>266.2898381224438</v>
+        <v>112.8332968425541</v>
       </c>
       <c r="P28" t="n">
         <v>266.2898381224438</v>
@@ -6421,13 +6421,13 @@
         <v>125.7908590024695</v>
       </c>
       <c r="W28" t="n">
-        <v>48.170929283982</v>
+        <v>48.17092928398201</v>
       </c>
       <c r="X28" t="n">
-        <v>39.63307197063875</v>
+        <v>39.63307197063877</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.92166172201683</v>
+        <v>35.92166172201684</v>
       </c>
     </row>
     <row r="29">
@@ -6443,19 +6443,19 @@
         <v>882.8924400792735</v>
       </c>
       <c r="D29" t="n">
-        <v>757.3316491962487</v>
+        <v>757.3316491962486</v>
       </c>
       <c r="E29" t="n">
-        <v>597.7236336471543</v>
+        <v>597.7236336471542</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0748730693959</v>
+        <v>406.0748730693958</v>
       </c>
       <c r="G29" t="n">
-        <v>198.629559657707</v>
+        <v>198.6295596577069</v>
       </c>
       <c r="H29" t="n">
-        <v>63.72957914662742</v>
+        <v>63.72957914662743</v>
       </c>
       <c r="I29" t="n">
         <v>35.92166172201685</v>
@@ -6464,13 +6464,13 @@
         <v>171.2683996847217</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9831015629837</v>
+        <v>375.9831015629836</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0887466946303</v>
+        <v>634.08874669463</v>
       </c>
       <c r="M29" t="n">
-        <v>926.3413643191345</v>
+        <v>926.3413643191341</v>
       </c>
       <c r="N29" t="n">
         <v>1213.060921153725</v>
@@ -6488,13 +6488,13 @@
         <v>1796.083086100842</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.898883169497</v>
+        <v>1781.898883169498</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.810566182449</v>
+        <v>1772.81056618245</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.75648745189</v>
+        <v>1735.756487451891</v>
       </c>
       <c r="V29" t="n">
         <v>1627.258702662881</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>530.6926981223265</v>
+        <v>398.8971398676387</v>
       </c>
       <c r="C30" t="n">
-        <v>530.6926981223265</v>
+        <v>209.4848656006024</v>
       </c>
       <c r="D30" t="n">
-        <v>369.9125818833583</v>
+        <v>209.4848656006024</v>
       </c>
       <c r="E30" t="n">
-        <v>196.3493780047727</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F30" t="n">
         <v>35.92166172201685</v>
@@ -6567,25 +6567,25 @@
         <v>793.3606943740707</v>
       </c>
       <c r="S30" t="n">
-        <v>793.3606943740707</v>
+        <v>698.0866308476517</v>
       </c>
       <c r="T30" t="n">
-        <v>791.8422880327873</v>
+        <v>696.5682245063683</v>
       </c>
       <c r="U30" t="n">
-        <v>767.841196112689</v>
+        <v>672.5671325862698</v>
       </c>
       <c r="V30" t="n">
-        <v>740.3846867719117</v>
+        <v>645.1106232454925</v>
       </c>
       <c r="W30" t="n">
-        <v>686.6093262577916</v>
+        <v>591.3352627313725</v>
       </c>
       <c r="X30" t="n">
-        <v>540.7101824314102</v>
+        <v>587.4504771036575</v>
       </c>
       <c r="Y30" t="n">
-        <v>530.6926981223265</v>
+        <v>577.4329927945737</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.41321716505085</v>
+        <v>71.41321716505082</v>
       </c>
       <c r="C31" t="n">
         <v>117.9529149041506</v>
@@ -6604,64 +6604,64 @@
         <v>117.9529149041506</v>
       </c>
       <c r="E31" t="n">
-        <v>117.9529149041506</v>
+        <v>189.0258420054002</v>
       </c>
       <c r="F31" t="n">
-        <v>191.7476084092409</v>
+        <v>189.0258420054002</v>
       </c>
       <c r="G31" t="n">
-        <v>191.7476084092409</v>
+        <v>189.0258420054002</v>
       </c>
       <c r="H31" t="n">
-        <v>191.7476084092409</v>
+        <v>189.0258420054002</v>
       </c>
       <c r="I31" t="n">
-        <v>191.7476084092409</v>
+        <v>189.0258420054002</v>
       </c>
       <c r="J31" t="n">
-        <v>191.7476084092409</v>
+        <v>189.0258420054002</v>
       </c>
       <c r="K31" t="n">
-        <v>266.2898381224436</v>
+        <v>189.0258420054002</v>
       </c>
       <c r="L31" t="n">
-        <v>266.2898381224436</v>
+        <v>189.0258420054002</v>
       </c>
       <c r="M31" t="n">
-        <v>266.2898381224436</v>
+        <v>189.0258420054002</v>
       </c>
       <c r="N31" t="n">
-        <v>266.2898381224436</v>
+        <v>189.0258420054002</v>
       </c>
       <c r="O31" t="n">
-        <v>266.2898381224436</v>
+        <v>189.0258420054002</v>
       </c>
       <c r="P31" t="n">
-        <v>266.2898381224436</v>
+        <v>189.0258420054002</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.2898381224436</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="R31" t="n">
-        <v>266.2898381224436</v>
+        <v>266.2898381224438</v>
       </c>
       <c r="S31" t="n">
-        <v>244.0994937177467</v>
+        <v>244.0994937177468</v>
       </c>
       <c r="T31" t="n">
-        <v>233.7015767757517</v>
+        <v>233.7015767757518</v>
       </c>
       <c r="U31" t="n">
-        <v>157.7525140695575</v>
+        <v>157.7525140695576</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7908590024694</v>
+        <v>125.7908590024695</v>
       </c>
       <c r="W31" t="n">
-        <v>48.17092928398196</v>
+        <v>48.17092928398202</v>
       </c>
       <c r="X31" t="n">
-        <v>39.63307197063875</v>
+        <v>39.63307197063877</v>
       </c>
       <c r="Y31" t="n">
         <v>35.92166172201685</v>
@@ -6677,37 +6677,37 @@
         <v>1021.01215797134</v>
       </c>
       <c r="C32" t="n">
-        <v>882.8924400792736</v>
+        <v>882.892440079273</v>
       </c>
       <c r="D32" t="n">
-        <v>757.3316491962488</v>
+        <v>757.3316491962482</v>
       </c>
       <c r="E32" t="n">
-        <v>597.7236336471544</v>
+        <v>597.7236336471539</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0748730693961</v>
+        <v>406.0748730693955</v>
       </c>
       <c r="G32" t="n">
-        <v>198.6295596577071</v>
+        <v>198.6295596577065</v>
       </c>
       <c r="H32" t="n">
-        <v>63.72957914662766</v>
+        <v>63.72957914662742</v>
       </c>
       <c r="I32" t="n">
         <v>35.92166172201685</v>
       </c>
       <c r="J32" t="n">
-        <v>171.2683996847219</v>
+        <v>171.2683996847217</v>
       </c>
       <c r="K32" t="n">
-        <v>375.9831015629838</v>
+        <v>375.9831015629837</v>
       </c>
       <c r="L32" t="n">
-        <v>634.0887466946303</v>
+        <v>634.0887466946301</v>
       </c>
       <c r="M32" t="n">
-        <v>926.3413643191348</v>
+        <v>926.3413643191343</v>
       </c>
       <c r="N32" t="n">
         <v>1213.060921153725</v>
@@ -6725,25 +6725,25 @@
         <v>1796.083086100842</v>
       </c>
       <c r="S32" t="n">
-        <v>1781.898883169498</v>
+        <v>1781.898883169497</v>
       </c>
       <c r="T32" t="n">
-        <v>1772.81056618245</v>
+        <v>1772.810566182449</v>
       </c>
       <c r="U32" t="n">
         <v>1735.75648745189</v>
       </c>
       <c r="V32" t="n">
-        <v>1627.258702662881</v>
+        <v>1627.25870266288</v>
       </c>
       <c r="W32" t="n">
-        <v>1501.572351998503</v>
+        <v>1501.572351998502</v>
       </c>
       <c r="X32" t="n">
-        <v>1353.778677628126</v>
+        <v>1353.778677628125</v>
       </c>
       <c r="Y32" t="n">
-        <v>1183.254848587301</v>
+        <v>1183.2548485873</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>62.92478588288054</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="C33" t="n">
-        <v>62.92478588288054</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="D33" t="n">
-        <v>62.92478588288054</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="E33" t="n">
-        <v>62.92478588288054</v>
+        <v>196.3493780047727</v>
       </c>
       <c r="F33" t="n">
-        <v>62.92478588288054</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G33" t="n">
         <v>35.92166172201685</v>
@@ -6804,25 +6804,25 @@
         <v>793.3606943740707</v>
       </c>
       <c r="S33" t="n">
-        <v>793.3606943740707</v>
+        <v>748.2494335690278</v>
       </c>
       <c r="T33" t="n">
-        <v>791.8422880327873</v>
+        <v>746.7310272277444</v>
       </c>
       <c r="U33" t="n">
-        <v>767.841196112689</v>
+        <v>722.7299353076461</v>
       </c>
       <c r="V33" t="n">
-        <v>740.3846867719117</v>
+        <v>695.2734259668688</v>
       </c>
       <c r="W33" t="n">
-        <v>470.986117502203</v>
+        <v>425.8748566971601</v>
       </c>
       <c r="X33" t="n">
-        <v>467.101331874488</v>
+        <v>206.3668623138564</v>
       </c>
       <c r="Y33" t="n">
-        <v>241.4606388098156</v>
+        <v>196.3493780047727</v>
       </c>
     </row>
     <row r="34">
@@ -6835,40 +6835,40 @@
         <v>35.92166172201685</v>
       </c>
       <c r="C34" t="n">
-        <v>82.46135946111664</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="D34" t="n">
-        <v>150.0628426142655</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="E34" t="n">
-        <v>150.0628426142655</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="F34" t="n">
-        <v>150.0628426142655</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="G34" t="n">
-        <v>194.3815315561582</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="H34" t="n">
-        <v>194.3815315561582</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="I34" t="n">
-        <v>194.3815315561582</v>
+        <v>35.92166172201685</v>
       </c>
       <c r="J34" t="n">
-        <v>194.3815315561582</v>
+        <v>71.28965252863637</v>
       </c>
       <c r="K34" t="n">
-        <v>194.3815315561582</v>
+        <v>71.28965252863637</v>
       </c>
       <c r="L34" t="n">
-        <v>194.3815315561582</v>
+        <v>71.28965252863637</v>
       </c>
       <c r="M34" t="n">
-        <v>194.3815315561582</v>
+        <v>71.28965252863637</v>
       </c>
       <c r="N34" t="n">
-        <v>194.3815315561582</v>
+        <v>266.2898381224436</v>
       </c>
       <c r="O34" t="n">
         <v>266.2898381224436</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0119765837459</v>
+        <v>623.011976583746</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0768043248352</v>
+        <v>544.0768043248354</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7005590749666</v>
+        <v>477.7005590749667</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2770891590283</v>
+        <v>377.2770891590285</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8128742144258</v>
+        <v>244.8128742144263</v>
       </c>
       <c r="G35" t="n">
         <v>96.55210643589363</v>
@@ -6932,28 +6932,28 @@
         <v>20.83667155797032</v>
       </c>
       <c r="I35" t="n">
-        <v>51.5889048651658</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J35" t="n">
-        <v>244.942416002927</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K35" t="n">
-        <v>269.2453925596134</v>
+        <v>278.690482087853</v>
       </c>
       <c r="L35" t="n">
-        <v>527.0992030894961</v>
+        <v>325.463820318147</v>
       </c>
       <c r="M35" t="n">
-        <v>784.9530136193787</v>
+        <v>406.3841310412988</v>
       </c>
       <c r="N35" t="n">
-        <v>860.340263552617</v>
+        <v>481.771380974537</v>
       </c>
       <c r="O35" t="n">
-        <v>894.6169471860467</v>
+        <v>516.0480646079666</v>
       </c>
       <c r="P35" t="n">
-        <v>894.6169471860467</v>
+        <v>770.4939285309996</v>
       </c>
       <c r="Q35" t="n">
         <v>894.6169471860467</v>
@@ -6971,16 +6971,16 @@
         <v>1041.833577898516</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5203387426623</v>
+        <v>992.5203387426625</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0185337114403</v>
+        <v>926.0185337114407</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4094049742193</v>
+        <v>837.4094049742196</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0701215665499</v>
+        <v>726.0701215665501</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>354.8275917193117</v>
+        <v>129.278308304507</v>
       </c>
       <c r="C36" t="n">
-        <v>354.8275917193117</v>
+        <v>129.278308304507</v>
       </c>
       <c r="D36" t="n">
-        <v>354.8275917193117</v>
+        <v>129.278308304507</v>
       </c>
       <c r="E36" t="n">
-        <v>181.2643878407262</v>
+        <v>129.278308304507</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83667155797032</v>
+        <v>129.278308304507</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83667155797032</v>
+        <v>129.278308304507</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83667155797032</v>
+        <v>129.278308304507</v>
       </c>
       <c r="I36" t="n">
         <v>20.83667155797032</v>
@@ -7017,49 +7017,49 @@
         <v>20.83667155797032</v>
       </c>
       <c r="K36" t="n">
-        <v>58.82873859027505</v>
+        <v>58.82873859027499</v>
       </c>
       <c r="L36" t="n">
-        <v>176.2003035620934</v>
+        <v>176.2003035620933</v>
       </c>
       <c r="M36" t="n">
-        <v>357.9220480425917</v>
+        <v>357.9220480425914</v>
       </c>
       <c r="N36" t="n">
-        <v>562.8733159364415</v>
+        <v>562.8733159364413</v>
       </c>
       <c r="O36" t="n">
-        <v>694.6166032187285</v>
+        <v>694.6166032187282</v>
       </c>
       <c r="P36" t="n">
-        <v>778.2757042100246</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.2757042100246</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="R36" t="n">
-        <v>778.2757042100246</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="S36" t="n">
-        <v>778.2757042100246</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="T36" t="n">
-        <v>778.2757042100246</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="U36" t="n">
-        <v>778.2757042100246</v>
+        <v>618.0082887172894</v>
       </c>
       <c r="V36" t="n">
-        <v>778.2757042100246</v>
+        <v>618.0082887172894</v>
       </c>
       <c r="W36" t="n">
-        <v>574.3355861026154</v>
+        <v>354.9190013691793</v>
       </c>
       <c r="X36" t="n">
-        <v>354.8275917193117</v>
+        <v>354.9190013691793</v>
       </c>
       <c r="Y36" t="n">
-        <v>354.8275917193117</v>
+        <v>129.278308304507</v>
       </c>
     </row>
     <row r="37">
@@ -7093,34 +7093,34 @@
         <v>20.83667155797032</v>
       </c>
       <c r="J37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="K37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="L37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="M37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="N37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="O37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="P37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="R37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="S37" t="n">
-        <v>20.83667155797032</v>
+        <v>56.03657271633976</v>
       </c>
       <c r="T37" t="n">
         <v>56.03657271633976</v>
@@ -7154,55 +7154,55 @@
         <v>544.0768043248356</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7005590749669</v>
+        <v>477.7005590749668</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2770891590287</v>
+        <v>377.2770891590285</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8128742144264</v>
+        <v>244.8128742144262</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55210643589363</v>
+        <v>96.55210643589369</v>
       </c>
       <c r="H38" t="n">
         <v>20.83667155797032</v>
       </c>
       <c r="I38" t="n">
-        <v>51.5889048651658</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J38" t="n">
-        <v>244.942416002927</v>
+        <v>147.6281925612663</v>
       </c>
       <c r="K38" t="n">
-        <v>502.7962265328097</v>
+        <v>147.6281925612663</v>
       </c>
       <c r="L38" t="n">
-        <v>549.5695647631038</v>
+        <v>405.482003091149</v>
       </c>
       <c r="M38" t="n">
-        <v>630.4898754862558</v>
+        <v>486.4023138143008</v>
       </c>
       <c r="N38" t="n">
-        <v>705.877125419494</v>
+        <v>561.789563747539</v>
       </c>
       <c r="O38" t="n">
-        <v>926.9393577091845</v>
+        <v>596.0662473809687</v>
       </c>
       <c r="P38" t="n">
-        <v>926.9393577091845</v>
+        <v>850.5121113040017</v>
       </c>
       <c r="Q38" t="n">
-        <v>926.9393577091845</v>
+        <v>850.5121113040017</v>
       </c>
       <c r="R38" t="n">
-        <v>926.9393577091845</v>
+        <v>926.9393577091848</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0441935912299</v>
+        <v>971.0441935912302</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.14350728728</v>
+        <v>1020.143507287281</v>
       </c>
       <c r="U38" t="n">
         <v>1041.833577898516</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>520.9235557336802</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="C39" t="n">
-        <v>331.5112814666439</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="D39" t="n">
-        <v>331.5112814666439</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="E39" t="n">
-        <v>331.5112814666439</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="F39" t="n">
-        <v>171.0835651838881</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83667155797032</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="H39" t="n">
         <v>20.83667155797032</v>
@@ -7254,49 +7254,49 @@
         <v>20.83667155797032</v>
       </c>
       <c r="K39" t="n">
-        <v>58.82873859027505</v>
+        <v>58.82873859027499</v>
       </c>
       <c r="L39" t="n">
-        <v>176.2003035620934</v>
+        <v>176.2003035620933</v>
       </c>
       <c r="M39" t="n">
-        <v>357.9220480425917</v>
+        <v>357.9220480425914</v>
       </c>
       <c r="N39" t="n">
-        <v>562.8733159364415</v>
+        <v>562.8733159364413</v>
       </c>
       <c r="O39" t="n">
-        <v>694.6166032187285</v>
+        <v>694.6166032187282</v>
       </c>
       <c r="P39" t="n">
-        <v>778.2757042100246</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.2757042100246</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="R39" t="n">
-        <v>778.2757042100246</v>
+        <v>778.2757042100242</v>
       </c>
       <c r="S39" t="n">
-        <v>778.2757042100246</v>
+        <v>584.7530255301535</v>
       </c>
       <c r="T39" t="n">
-        <v>764.0032738300462</v>
+        <v>584.7530255301535</v>
       </c>
       <c r="U39" t="n">
-        <v>764.0032738300462</v>
+        <v>410.9297854126212</v>
       </c>
       <c r="V39" t="n">
-        <v>520.9235557336802</v>
+        <v>410.9297854126212</v>
       </c>
       <c r="W39" t="n">
-        <v>520.9235557336802</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="X39" t="n">
-        <v>520.9235557336802</v>
+        <v>147.8404980645111</v>
       </c>
       <c r="Y39" t="n">
-        <v>520.9235557336802</v>
+        <v>147.8404980645111</v>
       </c>
     </row>
     <row r="40">
@@ -7315,58 +7315,58 @@
         <v>20.83667155797032</v>
       </c>
       <c r="E40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="F40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="G40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="H40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03657271633976</v>
+        <v>20.83667155797032</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03657271633976</v>
+        <v>56.03657271633988</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03657271633976</v>
+        <v>56.03657271633988</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03657271633976</v>
+        <v>56.03657271633988</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27205564330168</v>
+        <v>39.27205564330173</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27205564330168</v>
+        <v>39.27205564330173</v>
       </c>
       <c r="W40" t="n">
         <v>20.83667155797032</v>
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.5041758676713</v>
+        <v>818.5041758676716</v>
       </c>
       <c r="C41" t="n">
-        <v>708.192375400215</v>
+        <v>708.1923754002155</v>
       </c>
       <c r="D41" t="n">
-        <v>610.4395019418009</v>
+        <v>610.4395019418012</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6394038173171</v>
+        <v>478.6394038173174</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7985606641691</v>
+        <v>314.7985606641696</v>
       </c>
       <c r="G41" t="n">
         <v>135.1611646770912</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J41" t="n">
         <v>190.6703794211881</v>
       </c>
       <c r="K41" t="n">
-        <v>422.639621167311</v>
+        <v>422.6396211673109</v>
       </c>
       <c r="L41" t="n">
-        <v>707.9998061668184</v>
+        <v>469.4129593976049</v>
       </c>
       <c r="M41" t="n">
-        <v>788.9201168899704</v>
+        <v>617.6804247904632</v>
       </c>
       <c r="N41" t="n">
-        <v>1102.894213592422</v>
+        <v>931.6545214929147</v>
       </c>
       <c r="O41" t="n">
-        <v>1137.170897225851</v>
+        <v>965.9312051263444</v>
       </c>
       <c r="P41" t="n">
-        <v>1360.864527841689</v>
+        <v>1189.624835742182</v>
       </c>
       <c r="Q41" t="n">
-        <v>1385.107999142262</v>
+        <v>1339.432986044274</v>
       </c>
       <c r="R41" t="n">
         <v>1385.107999142262</v>
@@ -7448,13 +7448,13 @@
         <v>1313.51905086077</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.640617621002</v>
+        <v>1215.640617621003</v>
       </c>
       <c r="X41" t="n">
         <v>1095.654860675236</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.9389490590208</v>
+        <v>952.9389490590212</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>349.2769341123465</v>
+        <v>773.0198733856043</v>
       </c>
       <c r="C42" t="n">
-        <v>349.2769341123465</v>
+        <v>773.0198733856043</v>
       </c>
       <c r="D42" t="n">
-        <v>188.4968178733783</v>
+        <v>773.0198733856043</v>
       </c>
       <c r="E42" t="n">
-        <v>188.4968178733783</v>
+        <v>773.0198733856043</v>
       </c>
       <c r="F42" t="n">
-        <v>28.06910159062234</v>
+        <v>773.0198733856043</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06910159062234</v>
+        <v>773.0198733856043</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06910159062234</v>
+        <v>646.0160468790635</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06910159062234</v>
+        <v>646.0160468790635</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06910159062234</v>
+        <v>646.0160468790635</v>
       </c>
       <c r="K42" t="n">
-        <v>66.06116862292707</v>
+        <v>684.0081139113682</v>
       </c>
       <c r="L42" t="n">
-        <v>183.4327335947455</v>
+        <v>801.3796788831866</v>
       </c>
       <c r="M42" t="n">
-        <v>365.1544780752437</v>
+        <v>983.1014233636847</v>
       </c>
       <c r="N42" t="n">
-        <v>570.1057459690935</v>
+        <v>1188.052691257534</v>
       </c>
       <c r="O42" t="n">
-        <v>701.8490332513805</v>
+        <v>1319.795978539821</v>
       </c>
       <c r="P42" t="n">
-        <v>785.5081342426766</v>
+        <v>1403.455079531117</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.5081342426766</v>
+        <v>1403.455079531117</v>
       </c>
       <c r="R42" t="n">
-        <v>785.5081342426766</v>
+        <v>1403.455079531117</v>
       </c>
       <c r="S42" t="n">
-        <v>785.5081342426766</v>
+        <v>1403.455079531117</v>
       </c>
       <c r="T42" t="n">
-        <v>594.7523715851596</v>
+        <v>1403.455079531117</v>
       </c>
       <c r="U42" t="n">
-        <v>594.7523715851596</v>
+        <v>1163.83077885543</v>
       </c>
       <c r="V42" t="n">
-        <v>594.7523715851596</v>
+        <v>1018.495310858417</v>
       </c>
       <c r="W42" t="n">
-        <v>568.7849284956501</v>
+        <v>992.527867768908</v>
       </c>
       <c r="X42" t="n">
-        <v>349.2769341123465</v>
+        <v>773.0198733856043</v>
       </c>
       <c r="Y42" t="n">
-        <v>349.2769341123465</v>
+        <v>773.0198733856043</v>
       </c>
     </row>
     <row r="43">
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>90.81519690151717</v>
+        <v>51.68608827380885</v>
       </c>
       <c r="C43" t="n">
-        <v>90.81519690151717</v>
+        <v>51.68608827380885</v>
       </c>
       <c r="D43" t="n">
-        <v>90.81519690151717</v>
+        <v>51.68608827380885</v>
       </c>
       <c r="E43" t="n">
-        <v>90.81519690151717</v>
+        <v>51.68608827380885</v>
       </c>
       <c r="F43" t="n">
-        <v>130.1759968085603</v>
+        <v>51.68608827380885</v>
       </c>
       <c r="G43" t="n">
-        <v>130.1759968085603</v>
+        <v>51.68608827380885</v>
       </c>
       <c r="H43" t="n">
-        <v>130.1759968085603</v>
+        <v>51.68608827380885</v>
       </c>
       <c r="I43" t="n">
-        <v>130.1759968085603</v>
+        <v>51.68608827380885</v>
       </c>
       <c r="J43" t="n">
-        <v>130.1759968085603</v>
+        <v>51.68608827380885</v>
       </c>
       <c r="K43" t="n">
-        <v>130.1759968085603</v>
+        <v>51.68608827380885</v>
       </c>
       <c r="L43" t="n">
-        <v>130.1759968085603</v>
+        <v>51.68608827380885</v>
       </c>
       <c r="M43" t="n">
-        <v>130.1759968085603</v>
+        <v>51.68608827380885</v>
       </c>
       <c r="N43" t="n">
-        <v>130.1759968085603</v>
+        <v>51.68608827380885</v>
       </c>
       <c r="O43" t="n">
-        <v>130.1759968085603</v>
+        <v>51.68608827380885</v>
       </c>
       <c r="P43" t="n">
-        <v>130.1759968085603</v>
+        <v>51.68608827380885</v>
       </c>
       <c r="Q43" t="n">
         <v>130.1759968085603</v>
@@ -7600,19 +7600,19 @@
         <v>130.1759968085603</v>
       </c>
       <c r="U43" t="n">
-        <v>82.03485152697669</v>
+        <v>82.03485152697671</v>
       </c>
       <c r="V43" t="n">
-        <v>77.88111388449923</v>
+        <v>77.88111388449924</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06910159062234</v>
+        <v>51.68608827380885</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.5041758676714</v>
+        <v>818.5041758676712</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1923754002153</v>
+        <v>708.1923754002149</v>
       </c>
       <c r="D44" t="n">
-        <v>610.4395019418009</v>
+        <v>610.4395019418007</v>
       </c>
       <c r="E44" t="n">
         <v>478.6394038173169</v>
@@ -7640,10 +7640,10 @@
         <v>135.1611646770912</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J44" t="n">
         <v>190.6703794211881</v>
@@ -7652,28 +7652,28 @@
         <v>422.6396211673109</v>
       </c>
       <c r="L44" t="n">
-        <v>469.4129593976049</v>
+        <v>707.9998061668182</v>
       </c>
       <c r="M44" t="n">
-        <v>550.3332701207568</v>
+        <v>859.7211357951561</v>
       </c>
       <c r="N44" t="n">
-        <v>679.7150721488513</v>
+        <v>935.1083857283943</v>
       </c>
       <c r="O44" t="n">
-        <v>952.5786025514941</v>
+        <v>1207.971916131037</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.272233167332</v>
+        <v>1207.971916131037</v>
       </c>
       <c r="Q44" t="n">
-        <v>1326.080383469424</v>
+        <v>1357.78006643313</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.755396567412</v>
+        <v>1403.455079531117</v>
       </c>
       <c r="S44" t="n">
-        <v>1385.107999142262</v>
+        <v>1403.455079531117</v>
       </c>
       <c r="T44" t="n">
         <v>1403.455079531117</v>
@@ -7691,7 +7691,7 @@
         <v>1095.654860675236</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.9389490590211</v>
+        <v>952.9389490590208</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>551.4722960190001</v>
+        <v>178.3159952165401</v>
       </c>
       <c r="C45" t="n">
-        <v>362.0600217519638</v>
+        <v>178.3159952165401</v>
       </c>
       <c r="D45" t="n">
-        <v>362.0600217519638</v>
+        <v>178.3159952165401</v>
       </c>
       <c r="E45" t="n">
-        <v>188.4968178733783</v>
+        <v>178.3159952165401</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06910159062234</v>
+        <v>178.3159952165401</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="K45" t="n">
-        <v>66.06116862292704</v>
+        <v>66.06116862292703</v>
       </c>
       <c r="L45" t="n">
-        <v>183.4327335947454</v>
+        <v>183.4327335947453</v>
       </c>
       <c r="M45" t="n">
-        <v>365.1544780752436</v>
+        <v>365.1544780752434</v>
       </c>
       <c r="N45" t="n">
-        <v>570.1057459690934</v>
+        <v>570.1057459690933</v>
       </c>
       <c r="O45" t="n">
-        <v>701.8490332513804</v>
+        <v>701.8490332513802</v>
       </c>
       <c r="P45" t="n">
-        <v>785.5081342426765</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="Q45" t="n">
-        <v>778.5924711308902</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="R45" t="n">
-        <v>778.5924711308902</v>
+        <v>785.5081342426762</v>
       </c>
       <c r="S45" t="n">
-        <v>778.5924711308902</v>
+        <v>591.9854555628056</v>
       </c>
       <c r="T45" t="n">
-        <v>778.5924711308902</v>
+        <v>591.9854555628056</v>
       </c>
       <c r="U45" t="n">
-        <v>577.4397391085096</v>
+        <v>591.9854555628056</v>
       </c>
       <c r="V45" t="n">
-        <v>577.4397391085096</v>
+        <v>423.7914326893532</v>
       </c>
       <c r="W45" t="n">
-        <v>551.4722960190001</v>
+        <v>397.8239895998437</v>
       </c>
       <c r="X45" t="n">
-        <v>551.4722960190001</v>
+        <v>178.3159952165401</v>
       </c>
       <c r="Y45" t="n">
-        <v>551.4722960190001</v>
+        <v>178.3159952165401</v>
       </c>
     </row>
     <row r="46">
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>90.81519690151717</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="C46" t="n">
-        <v>90.81519690151717</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="D46" t="n">
-        <v>90.81519690151717</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="E46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="F46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="G46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="H46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="I46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="J46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="K46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="L46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="M46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="N46" t="n">
-        <v>130.1759968085603</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="O46" t="n">
         <v>130.1759968085603</v>
@@ -7837,19 +7837,19 @@
         <v>130.1759968085603</v>
       </c>
       <c r="U46" t="n">
-        <v>82.03485152697669</v>
+        <v>82.03485152697671</v>
       </c>
       <c r="V46" t="n">
-        <v>77.88111388449923</v>
+        <v>77.88111388449924</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06910159062234</v>
+        <v>28.06910159062235</v>
       </c>
     </row>
   </sheetData>
@@ -8775,10 +8775,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>301.77688131</v>
+        <v>301.7768813100001</v>
       </c>
       <c r="N12" t="n">
-        <v>292.154752904144</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9018,7 +9018,7 @@
         <v>292.1547529041439</v>
       </c>
       <c r="O15" t="n">
-        <v>255.2227828913208</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9246,13 +9246,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>240.3045437566416</v>
+        <v>240.3045437566417</v>
       </c>
       <c r="M18" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.154752904144</v>
+        <v>292.1547529041439</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9480,7 +9480,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841511</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9495,7 +9495,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>206.3638740786794</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9732,7 +9732,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>206.3638740786794</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.7575910532782</v>
+        <v>32.22196995268947</v>
       </c>
       <c r="C11" t="n">
         <v>171.8758480566237</v>
@@ -23267,16 +23267,16 @@
         <v>193.149262737081</v>
       </c>
       <c r="F11" t="n">
-        <v>36.30722326487668</v>
+        <v>224.8696003154583</v>
       </c>
       <c r="G11" t="n">
-        <v>51.94581057046801</v>
+        <v>51.94581057046804</v>
       </c>
       <c r="H11" t="n">
         <v>168.6883080494462</v>
       </c>
       <c r="I11" t="n">
-        <v>62.66716559384204</v>
+        <v>62.66716559384207</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.53078872718775</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.17968824550876</v>
+        <v>49.17968824550879</v>
       </c>
       <c r="T11" t="n">
-        <v>37.49152977217502</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>71.82086528673108</v>
+        <v>71.82086528673111</v>
       </c>
       <c r="V11" t="n">
         <v>142.5501342845969</v>
       </c>
       <c r="W11" t="n">
-        <v>159.5668145012117</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>181.453064970151</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.39354104331309</v>
+        <v>203.9559180938948</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.195214002696616</v>
+        <v>195.7575910532782</v>
       </c>
       <c r="C14" t="n">
         <v>171.8758480566237</v>
       </c>
       <c r="D14" t="n">
-        <v>159.4425103176722</v>
+        <v>63.30015229292143</v>
       </c>
       <c r="E14" t="n">
-        <v>193.1492627370811</v>
+        <v>4.586885686499386</v>
       </c>
       <c r="F14" t="n">
-        <v>224.8696003154584</v>
+        <v>224.8696003154583</v>
       </c>
       <c r="G14" t="n">
         <v>240.5081876210497</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.6883080494462</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.66716559384207</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,10 +23540,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.53078872718777</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.1796882455088</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>12.3612155406529</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>159.5668145012118</v>
@@ -23561,7 +23561,7 @@
         <v>181.453064970151</v>
       </c>
       <c r="Y14" t="n">
-        <v>203.9559180938948</v>
+        <v>15.39354104331312</v>
       </c>
     </row>
     <row r="15">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-1.456612608308205e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23969,10 +23969,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-2.486899575160351e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-1.56319401867222e-13</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>994814.2238828015</v>
+        <v>994814.2238828014</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>994814.2238828012</v>
+        <v>994814.2238828015</v>
       </c>
     </row>
     <row r="7">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>463014.2974676412</v>
+      </c>
+      <c r="C2" t="n">
+        <v>463014.2974676413</v>
+      </c>
+      <c r="D2" t="n">
         <v>463014.2974676414</v>
-      </c>
-      <c r="C2" t="n">
-        <v>463014.2974676412</v>
-      </c>
-      <c r="D2" t="n">
-        <v>463014.2974676412</v>
       </c>
       <c r="E2" t="n">
         <v>398994.7967357515</v>
       </c>
       <c r="F2" t="n">
-        <v>398994.7967357516</v>
+        <v>398994.7967357514</v>
       </c>
       <c r="G2" t="n">
         <v>463952.2381507313</v>
       </c>
       <c r="H2" t="n">
-        <v>463952.2381507313</v>
+        <v>463952.2381507315</v>
       </c>
       <c r="I2" t="n">
-        <v>463952.2381507315</v>
+        <v>463952.2381507314</v>
       </c>
       <c r="J2" t="n">
         <v>463952.2381507314</v>
       </c>
       <c r="K2" t="n">
-        <v>463952.2381507314</v>
+        <v>463952.2381507313</v>
       </c>
       <c r="L2" t="n">
-        <v>463952.2381507313</v>
+        <v>463952.2381507315</v>
       </c>
       <c r="M2" t="n">
         <v>463952.2381507313</v>
@@ -26350,7 +26350,7 @@
         <v>463952.2381507313</v>
       </c>
       <c r="O2" t="n">
-        <v>463952.2381507313</v>
+        <v>463952.2381507314</v>
       </c>
       <c r="P2" t="n">
         <v>463952.2381507313</v>
@@ -26378,10 +26378,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95275.95397400486</v>
+        <v>95275.95397400482</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95275.95397400486</v>
+        <v>95275.95397400485</v>
       </c>
       <c r="M3" t="n">
-        <v>46874.16014145963</v>
+        <v>46874.16014145967</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72403.48181660005</v>
+        <v>72403.48181660009</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>401611.6670699617</v>
       </c>
       <c r="H4" t="n">
-        <v>401611.6670699617</v>
+        <v>401611.6670699618</v>
       </c>
       <c r="I4" t="n">
         <v>401611.6670699618</v>
@@ -26442,22 +26442,22 @@
         <v>402517.6175033181</v>
       </c>
       <c r="K4" t="n">
+        <v>402517.6175033181</v>
+      </c>
+      <c r="L4" t="n">
         <v>402517.617503318</v>
       </c>
-      <c r="L4" t="n">
-        <v>402517.6175033181</v>
-      </c>
       <c r="M4" t="n">
-        <v>401692.5905255167</v>
+        <v>401692.5905255168</v>
       </c>
       <c r="N4" t="n">
         <v>401692.5905255167</v>
       </c>
       <c r="O4" t="n">
+        <v>402079.8338982546</v>
+      </c>
+      <c r="P4" t="n">
         <v>402079.8338982545</v>
-      </c>
-      <c r="P4" t="n">
-        <v>402079.8338982544</v>
       </c>
     </row>
     <row r="5">
@@ -26491,7 +26491,7 @@
         <v>38676.13884131941</v>
       </c>
       <c r="J5" t="n">
-        <v>47453.77647951488</v>
+        <v>47453.77647951489</v>
       </c>
       <c r="K5" t="n">
         <v>47453.7764795149</v>
@@ -26503,13 +26503,13 @@
         <v>40915.013666005</v>
       </c>
       <c r="N5" t="n">
-        <v>40915.013666005</v>
+        <v>40915.01366600499</v>
       </c>
       <c r="O5" t="n">
-        <v>43800.23675152496</v>
+        <v>43800.23675152497</v>
       </c>
       <c r="P5" t="n">
-        <v>43800.23675152496</v>
+        <v>43800.23675152497</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11424.44426729387</v>
+        <v>-11428.91065149929</v>
       </c>
       <c r="C6" t="n">
-        <v>-11424.4442672941</v>
+        <v>-11428.91065149923</v>
       </c>
       <c r="D6" t="n">
-        <v>-11424.4442672941</v>
+        <v>-11428.91065149912</v>
       </c>
       <c r="E6" t="n">
-        <v>-241130.6822367277</v>
+        <v>-241440.0033863229</v>
       </c>
       <c r="F6" t="n">
-        <v>39182.15994747873</v>
+        <v>38872.83879788336</v>
       </c>
       <c r="G6" t="n">
-        <v>-71611.52173455477</v>
+        <v>-71611.5217345546</v>
       </c>
       <c r="H6" t="n">
-        <v>23664.43223945018</v>
+        <v>23664.4322394503</v>
       </c>
       <c r="I6" t="n">
-        <v>23664.43223945035</v>
+        <v>23664.43223945024</v>
       </c>
       <c r="J6" t="n">
-        <v>-129664.1593564427</v>
+        <v>-129664.1593564426</v>
       </c>
       <c r="K6" t="n">
-        <v>13980.84416789847</v>
+        <v>13980.84416789829</v>
       </c>
       <c r="L6" t="n">
-        <v>-81295.1098061066</v>
+        <v>-81295.10980610625</v>
       </c>
       <c r="M6" t="n">
-        <v>-25529.52618224995</v>
+        <v>-25529.52618225013</v>
       </c>
       <c r="N6" t="n">
-        <v>21344.6339592096</v>
+        <v>21344.63395920966</v>
       </c>
       <c r="O6" t="n">
         <v>-54331.31431564823</v>
       </c>
       <c r="P6" t="n">
-        <v>18072.16750095191</v>
+        <v>18072.16750095179</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="F2" t="n">
         <v>178.3296493245551</v>
@@ -26719,7 +26719,7 @@
         <v>272.0596768448573</v>
       </c>
       <c r="N2" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="O2" t="n">
         <v>240.9968149183972</v>
@@ -26768,16 +26768,16 @@
         <v>101.2549683154701</v>
       </c>
       <c r="M3" t="n">
-        <v>101.2549683154703</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="N3" t="n">
-        <v>101.2549683154703</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="O3" t="n">
-        <v>101.2549683154703</v>
+        <v>101.2549683154701</v>
       </c>
       <c r="P3" t="n">
-        <v>101.2549683154702</v>
+        <v>101.2549683154701</v>
       </c>
     </row>
     <row r="4">
@@ -26808,10 +26808,10 @@
         <v>188.5623770505816</v>
       </c>
       <c r="I4" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="J4" t="n">
-        <v>449.0207715252103</v>
+        <v>449.0207715252105</v>
       </c>
       <c r="K4" t="n">
         <v>449.0207715252106</v>
@@ -26826,10 +26826,10 @@
         <v>260.458394474629</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8637698827793</v>
+        <v>350.8637698827794</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8637698827793</v>
+        <v>350.8637698827794</v>
       </c>
     </row>
   </sheetData>
@@ -26914,22 +26914,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.0949424675061</v>
+        <v>119.094942467506</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.37203420052666</v>
+        <v>94.37203420052663</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>119.0949424675061</v>
       </c>
       <c r="M2" t="n">
-        <v>58.59270017682454</v>
+        <v>58.59270017682459</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.30917227406658</v>
+        <v>63.30917227406661</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4583944746287</v>
+        <v>260.4583944746289</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.40537540815029</v>
+        <v>90.40537540815041</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.0949424675061</v>
+        <v>119.094942467506</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.37203420052666</v>
+        <v>94.37203420052663</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="C11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="D11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="E11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="F11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="G11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="H11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="I11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="J11" t="n">
-        <v>158.2533719716922</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="K11" t="n">
-        <v>178.3296493245552</v>
+        <v>6.684449518273155</v>
       </c>
       <c r="L11" t="n">
         <v>141.3165808583655</v>
@@ -28123,40 +28123,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>112.4136397442804</v>
+        <v>21.38889956049249</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>153.9394642895416</v>
       </c>
       <c r="P11" t="n">
-        <v>15.04365268017744</v>
+        <v>15.04365268017745</v>
       </c>
       <c r="Q11" t="n">
-        <v>89.67545097688964</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="R11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="S11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="T11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="U11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="V11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="W11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="X11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28178,7 +28178,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7444246896586</v>
@@ -28190,7 +28190,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J12" t="n">
-        <v>52.45818464705463</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.846506480668481</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R12" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S12" t="n">
-        <v>58.2850288864515</v>
+        <v>3.025074842490255</v>
       </c>
       <c r="T12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="U12" t="n">
-        <v>178.3296493245552</v>
+        <v>48.66568061834855</v>
       </c>
       <c r="V12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="W12" t="n">
-        <v>78.14220652642996</v>
+        <v>104.2426901566697</v>
       </c>
       <c r="X12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
     </row>
     <row r="13">
@@ -28245,13 +28245,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.3296493245552</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>178.3296493245552</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>178.3296493245552</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
@@ -28260,61 +28260,61 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>178.3296493245552</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H13" t="n">
-        <v>178.3296493245552</v>
+        <v>165.8230575663656</v>
       </c>
       <c r="I13" t="n">
-        <v>178.3296493245552</v>
+        <v>164.8484353357569</v>
       </c>
       <c r="J13" t="n">
         <v>120.2289512774728</v>
       </c>
       <c r="K13" t="n">
-        <v>87.97531464326977</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="M13" t="n">
-        <v>25.1932384637467</v>
+        <v>76.37982692617875</v>
       </c>
       <c r="N13" t="n">
         <v>16.49709222984359</v>
       </c>
       <c r="O13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.204364743505</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="R13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="S13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="T13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="U13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="V13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="W13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="X13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.3296493245552</v>
+        <v>178.3296493245551</v>
       </c>
     </row>
     <row r="14">
@@ -28348,19 +28348,19 @@
         <v>178.3296493245551</v>
       </c>
       <c r="J14" t="n">
+        <v>107.3810150715949</v>
+      </c>
+      <c r="K14" t="n">
         <v>178.3296493245551</v>
       </c>
-      <c r="K14" t="n">
-        <v>136.28395618568</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>141.3165808583655</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>112.4136397442804</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -28415,19 +28415,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H15" t="n">
-        <v>125.7337882414754</v>
+        <v>57.42355243448029</v>
       </c>
       <c r="I15" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J15" t="n">
-        <v>52.45818464705463</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R15" t="n">
         <v>134.7086383504341</v>
@@ -28460,7 +28460,7 @@
         <v>26.40782189532166</v>
       </c>
       <c r="U15" t="n">
-        <v>106.7869055679591</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="V15" t="n">
         <v>178.3296493245551</v>
@@ -28485,13 +28485,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>178.3296493245551</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>178.3296493245551</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
@@ -28506,13 +28506,13 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J16" t="n">
-        <v>178.3296493245551</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K16" t="n">
         <v>67.01246855587064</v>
       </c>
       <c r="L16" t="n">
-        <v>101.9290758965312</v>
+        <v>67.68368069227564</v>
       </c>
       <c r="M16" t="n">
         <v>25.1932384637467</v>
@@ -28521,7 +28521,7 @@
         <v>178.3296493245551</v>
       </c>
       <c r="O16" t="n">
-        <v>37.45757960830502</v>
+        <v>178.3296493245551</v>
       </c>
       <c r="P16" t="n">
         <v>178.3296493245551</v>
@@ -28582,16 +28582,16 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I17" t="n">
-        <v>240.9968149183972</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="J17" t="n">
-        <v>265.3154769886094</v>
+        <v>76.75309993802782</v>
       </c>
       <c r="K17" t="n">
-        <v>6.684449518273148</v>
+        <v>6.684449518273155</v>
       </c>
       <c r="L17" t="n">
-        <v>141.3165808583655</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28600,25 +28600,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>153.9394642895416</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.04365268017744</v>
+        <v>15.04365268017745</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.67545097688964</v>
+        <v>278.2378280274713</v>
       </c>
       <c r="R17" t="n">
-        <v>194.8604380517429</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="S17" t="n">
-        <v>250.5666078141676</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4644104852103</v>
+        <v>264.5964638604667</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1505146112862</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="V17" t="n">
         <v>297.4245917920612</v>
@@ -28658,13 +28658,13 @@
         <v>148.7444246896586</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J18" t="n">
-        <v>52.45818464705463</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.846506480668481</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R18" t="n">
         <v>134.7086383504341</v>
@@ -28694,10 +28694,10 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T18" t="n">
-        <v>26.40782189532166</v>
+        <v>174.6182454812264</v>
       </c>
       <c r="U18" t="n">
-        <v>71.14231596277787</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V18" t="n">
         <v>52.08654386482061</v>
@@ -28706,7 +28706,7 @@
         <v>78.14220652642996</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>28.75053738888897</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28749,7 +28749,7 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L19" t="n">
-        <v>32.12940745055724</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M19" t="n">
         <v>25.1932384637467</v>
@@ -28758,7 +28758,7 @@
         <v>16.49709222984359</v>
       </c>
       <c r="O19" t="n">
-        <v>37.45757960830502</v>
+        <v>37.45757960830503</v>
       </c>
       <c r="P19" t="n">
         <v>58.46036931460877</v>
@@ -28819,34 +28819,34 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I20" t="n">
+        <v>240.9968149183972</v>
+      </c>
+      <c r="J20" t="n">
+        <v>76.75309993802782</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6.684449518273155</v>
+      </c>
+      <c r="L20" t="n">
+        <v>141.3165808583655</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>15.04365268017745</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>207.7949732919499</v>
+      </c>
+      <c r="R20" t="n">
         <v>297.4245917920612</v>
-      </c>
-      <c r="J20" t="n">
-        <v>146.4891257467515</v>
-      </c>
-      <c r="K20" t="n">
-        <v>195.2468265688548</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>15.04365268017744</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>89.67545097688964</v>
-      </c>
-      <c r="R20" t="n">
-        <v>194.8604380517429</v>
       </c>
       <c r="S20" t="n">
         <v>297.4245917920612</v>
@@ -28855,7 +28855,7 @@
         <v>297.4245917920612</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4245917920612</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V20" t="n">
         <v>297.4245917920612</v>
@@ -28886,7 +28886,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28901,7 +28901,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J21" t="n">
-        <v>52.45818464705463</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,31 +28922,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.846506480668481</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7086383504341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9701989459033</v>
+        <v>190.4396020708536</v>
       </c>
       <c r="U21" t="n">
-        <v>48.66568061834855</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>78.14220652642996</v>
       </c>
       <c r="X21" t="n">
         <v>28.75053738888897</v>
       </c>
       <c r="Y21" t="n">
-        <v>40.56373921709138</v>
+        <v>34.82190908344398</v>
       </c>
     </row>
     <row r="22">
@@ -28986,7 +28986,7 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L22" t="n">
-        <v>32.12940745055724</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M22" t="n">
         <v>25.1932384637467</v>
@@ -28995,7 +28995,7 @@
         <v>16.49709222984359</v>
       </c>
       <c r="O22" t="n">
-        <v>37.45757960830502</v>
+        <v>37.45757960830503</v>
       </c>
       <c r="P22" t="n">
         <v>58.46036931460877</v>
@@ -29056,16 +29056,16 @@
         <v>297.4245917920612</v>
       </c>
       <c r="I23" t="n">
-        <v>297.4245917920612</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J23" t="n">
-        <v>76.7530999380278</v>
+        <v>76.75309993802782</v>
       </c>
       <c r="K23" t="n">
-        <v>6.684449518273148</v>
+        <v>195.2468265688548</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>59.83568411943173</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29074,10 +29074,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>153.9394642895416</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>189.3178454719383</v>
+        <v>203.6060297307591</v>
       </c>
       <c r="Q23" t="n">
         <v>89.67545097688964</v>
@@ -29086,13 +29086,13 @@
         <v>194.8604380517429</v>
       </c>
       <c r="S23" t="n">
-        <v>227.5093375700639</v>
+        <v>297.4245917920612</v>
       </c>
       <c r="T23" t="n">
-        <v>297.4245917920612</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4245917920612</v>
+        <v>250.1505146112862</v>
       </c>
       <c r="V23" t="n">
         <v>297.4245917920612</v>
@@ -29123,22 +29123,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>91.65766601419975</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>19.42735945164802</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.3572203790713</v>
       </c>
       <c r="J24" t="n">
-        <v>52.45818464705463</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,22 +29159,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.846506480668481</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7086383504341</v>
       </c>
       <c r="S24" t="n">
         <v>191.5874518930719</v>
       </c>
       <c r="T24" t="n">
-        <v>26.40782189532163</v>
+        <v>26.40782189532166</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280576689302</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>52.08654386482061</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
@@ -29223,7 +29223,7 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L25" t="n">
-        <v>32.12940745055724</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M25" t="n">
         <v>25.1932384637467</v>
@@ -29232,7 +29232,7 @@
         <v>16.49709222984359</v>
       </c>
       <c r="O25" t="n">
-        <v>37.45757960830502</v>
+        <v>37.45757960830503</v>
       </c>
       <c r="P25" t="n">
         <v>58.46036931460877</v>
@@ -29311,7 +29311,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680329</v>
       </c>
       <c r="P26" t="n">
         <v>213.4669766680327</v>
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29366,7 +29366,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>132.7789888971038</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H27" t="n">
         <v>125.7337882414754</v>
@@ -29375,7 +29375,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J27" t="n">
-        <v>52.45818464705463</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,22 +29396,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.846506480668481</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7086383504341</v>
+        <v>86.09602065621844</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>213.4669766680327</v>
       </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="W27" t="n">
         <v>213.4669766680327</v>
@@ -29436,13 +29436,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>148.3310761248997</v>
       </c>
       <c r="G28" t="n">
         <v>168.7006242014745</v>
@@ -29460,19 +29460,19 @@
         <v>67.01246855587064</v>
       </c>
       <c r="L28" t="n">
-        <v>32.12940745055724</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M28" t="n">
-        <v>60.91848170275651</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N28" t="n">
+        <v>16.49709222984359</v>
+      </c>
+      <c r="O28" t="n">
+        <v>37.45757960830503</v>
+      </c>
+      <c r="P28" t="n">
         <v>213.4669766680327</v>
-      </c>
-      <c r="O28" t="n">
-        <v>37.45757960830502</v>
-      </c>
-      <c r="P28" t="n">
-        <v>58.46036931460877</v>
       </c>
       <c r="Q28" t="n">
         <v>127.204364743505</v>
@@ -29588,19 +29588,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7444246896586</v>
@@ -29612,7 +29612,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J30" t="n">
-        <v>52.45818464705463</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,13 +29633,13 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.846506480668481</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R30" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5874518930719</v>
+        <v>97.26612900191707</v>
       </c>
       <c r="T30" t="n">
         <v>213.4669766680327</v>
@@ -29654,7 +29654,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="X30" t="n">
-        <v>72.87276205135302</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="Y30" t="n">
         <v>213.4669766680327</v>
@@ -29676,10 +29676,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="F31" t="n">
-        <v>213.4669766680327</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
         <v>168.7006242014745</v>
@@ -29694,10 +29694,10 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K31" t="n">
-        <v>142.3076500843582</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L31" t="n">
-        <v>32.12940745055724</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M31" t="n">
         <v>25.1932384637467</v>
@@ -29706,13 +29706,13 @@
         <v>16.49709222984359</v>
       </c>
       <c r="O31" t="n">
-        <v>37.45757960830502</v>
+        <v>37.45757960830503</v>
       </c>
       <c r="P31" t="n">
         <v>58.46036931460877</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.204364743505</v>
+        <v>205.2488052657712</v>
       </c>
       <c r="R31" t="n">
         <v>203.4231839810568</v>
@@ -29788,7 +29788,7 @@
         <v>213.4669766680327</v>
       </c>
       <c r="P32" t="n">
-        <v>213.4669766680327</v>
+        <v>213.4669766680329</v>
       </c>
       <c r="Q32" t="n">
         <v>213.4669766680327</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29837,10 +29837,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>122.0113317704035</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H33" t="n">
         <v>125.7337882414754</v>
@@ -29849,7 +29849,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J33" t="n">
-        <v>52.45818464705463</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,13 +29870,13 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.846506480668481</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R33" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S33" t="n">
-        <v>191.5874518930719</v>
+        <v>146.9273036960794</v>
       </c>
       <c r="T33" t="n">
         <v>213.4669766680327</v>
@@ -29891,10 +29891,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>213.4669766680327</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29907,10 +29907,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>213.4669766680327</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>213.4669766680327</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -29919,7 +29919,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>213.4669766680327</v>
+        <v>168.7006242014745</v>
       </c>
       <c r="H34" t="n">
         <v>165.8230575663656</v>
@@ -29928,22 +29928,22 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J34" t="n">
-        <v>120.2289512774728</v>
+        <v>155.9541945164824</v>
       </c>
       <c r="K34" t="n">
         <v>67.01246855587064</v>
       </c>
       <c r="L34" t="n">
-        <v>32.12940745055724</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M34" t="n">
         <v>25.1932384637467</v>
       </c>
       <c r="N34" t="n">
-        <v>16.49709222984359</v>
+        <v>213.4669766680327</v>
       </c>
       <c r="O34" t="n">
-        <v>110.092232705563</v>
+        <v>37.45757960830503</v>
       </c>
       <c r="P34" t="n">
         <v>58.46036931460877</v>
@@ -30004,31 +30004,31 @@
         <v>272.0596768448573</v>
       </c>
       <c r="I35" t="n">
+        <v>240.9968149183972</v>
+      </c>
+      <c r="J35" t="n">
+        <v>76.75309993802782</v>
+      </c>
+      <c r="K35" t="n">
+        <v>267.1428439929021</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>272.0596768448573</v>
       </c>
-      <c r="J35" t="n">
-        <v>272.0596768448573</v>
-      </c>
-      <c r="K35" t="n">
-        <v>31.2329106866432</v>
-      </c>
-      <c r="L35" t="n">
-        <v>213.2125982824127</v>
-      </c>
-      <c r="M35" t="n">
-        <v>178.7207068754856</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>15.04365268017737</v>
-      </c>
       <c r="Q35" t="n">
-        <v>89.67545097688958</v>
+        <v>215.0522374971392</v>
       </c>
       <c r="R35" t="n">
         <v>272.0596768448573</v>
@@ -30071,10 +30071,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7444246896586</v>
@@ -30083,10 +30083,10 @@
         <v>125.7337882414754</v>
       </c>
       <c r="I36" t="n">
-        <v>107.3572203790713</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>52.45818464705461</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.846506480668449</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R36" t="n">
         <v>134.7086383504341</v>
@@ -30119,19 +30119,19 @@
         <v>214.9701989459033</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280576689302</v>
+        <v>78.56331633112273</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>64.80386665067644</v>
+        <v>6.24618910238263</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30165,25 +30165,25 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J37" t="n">
-        <v>120.2289512774727</v>
+        <v>155.7844069929974</v>
       </c>
       <c r="K37" t="n">
-        <v>67.01246855587061</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L37" t="n">
-        <v>32.12940745055721</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M37" t="n">
-        <v>25.19323846374667</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N37" t="n">
-        <v>16.49709222984356</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O37" t="n">
-        <v>37.457579608305</v>
+        <v>37.45757960830503</v>
       </c>
       <c r="P37" t="n">
-        <v>58.46036931460874</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q37" t="n">
         <v>127.204364743505</v>
@@ -30195,7 +30195,7 @@
         <v>235.4354176286827</v>
       </c>
       <c r="T37" t="n">
-        <v>259.3163701561325</v>
+        <v>223.7609144406078</v>
       </c>
       <c r="U37" t="n">
         <v>272.0596768448573</v>
@@ -30220,37 +30220,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="C38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="D38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="E38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="F38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="G38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="H38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0596768448573</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="J38" t="n">
-        <v>272.0596768448573</v>
+        <v>204.8253433757005</v>
       </c>
       <c r="K38" t="n">
-        <v>267.142843992902</v>
+        <v>6.684449518273155</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>213.2125982824128</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30259,37 +30259,37 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>188.6722713699604</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>15.04365268017737</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="Q38" t="n">
-        <v>89.67545097688958</v>
+        <v>89.67545097688964</v>
       </c>
       <c r="R38" t="n">
-        <v>194.8604380517429</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="V38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="W38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="Y38" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
     </row>
     <row r="39">
@@ -30302,7 +30302,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30311,19 +30311,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7444246896586</v>
       </c>
       <c r="H39" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J39" t="n">
-        <v>52.45818464705461</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,25 +30344,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.846506480668449</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R39" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.8404928697246</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280576689302</v>
+        <v>65.14304995257316</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>6.24618910238263</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30387,7 +30387,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>177.2315969277497</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -30402,31 +30402,31 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J40" t="n">
-        <v>120.2289512774727</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K40" t="n">
-        <v>67.01246855587061</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L40" t="n">
-        <v>32.12940745055721</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M40" t="n">
-        <v>25.19323846374667</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N40" t="n">
-        <v>16.49709222984356</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O40" t="n">
-        <v>37.457579608305</v>
+        <v>37.45757960830503</v>
       </c>
       <c r="P40" t="n">
-        <v>58.46036931460874</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q40" t="n">
         <v>127.204364743505</v>
       </c>
       <c r="R40" t="n">
-        <v>203.4231839810568</v>
+        <v>238.9786396965816</v>
       </c>
       <c r="S40" t="n">
         <v>235.4354176286827</v>
@@ -30435,13 +30435,13 @@
         <v>223.7609144406078</v>
       </c>
       <c r="U40" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>272.0596768448573</v>
+        <v>272.0596768448572</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30487,10 +30487,10 @@
         <v>240.9968149183972</v>
       </c>
       <c r="L41" t="n">
-        <v>240.9968149183972</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>68.02742895929948</v>
       </c>
       <c r="N41" t="n">
         <v>240.9968149183972</v>
@@ -30502,10 +30502,10 @@
         <v>240.9968149183972</v>
       </c>
       <c r="Q41" t="n">
-        <v>114.1638058259532</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="R41" t="n">
-        <v>194.8604380517429</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="S41" t="n">
         <v>227.5093375700639</v>
@@ -30542,25 +30542,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7444246896586</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7337882414754</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>107.3572203790713</v>
       </c>
       <c r="J42" t="n">
-        <v>52.45818464705461</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.846506480668449</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R42" t="n">
         <v>134.7086383504341</v>
@@ -30590,13 +30590,13 @@
         <v>191.5874518930719</v>
       </c>
       <c r="T42" t="n">
-        <v>26.12199391496142</v>
+        <v>214.9701989459033</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280576689302</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>96.76680759835941</v>
       </c>
       <c r="W42" t="n">
         <v>240.9968149183972</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>240.9968149183972</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -30627,7 +30627,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>178.6852659629347</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>168.7006242014745</v>
@@ -30639,28 +30639,28 @@
         <v>164.8484353357569</v>
       </c>
       <c r="J43" t="n">
-        <v>120.2289512774727</v>
+        <v>120.2289512774728</v>
       </c>
       <c r="K43" t="n">
-        <v>67.01246855587061</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L43" t="n">
-        <v>32.12940745055721</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M43" t="n">
-        <v>25.19323846374667</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N43" t="n">
-        <v>16.49709222984356</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O43" t="n">
-        <v>37.457579608305</v>
+        <v>37.45757960830503</v>
       </c>
       <c r="P43" t="n">
-        <v>58.46036931460874</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.204364743505</v>
+        <v>206.4871006371934</v>
       </c>
       <c r="R43" t="n">
         <v>203.4231839810568</v>
@@ -30684,7 +30684,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.1412728141684</v>
+        <v>240.9968149183972</v>
       </c>
     </row>
     <row r="44">
@@ -30724,19 +30724,19 @@
         <v>240.9968149183972</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>240.9968149183972</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>71.51618071230921</v>
       </c>
       <c r="N44" t="n">
-        <v>54.53995161096596</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="P44" t="n">
-        <v>240.9968149183972</v>
+        <v>15.04365268017745</v>
       </c>
       <c r="Q44" t="n">
         <v>240.9968149183972</v>
@@ -30745,10 +30745,10 @@
         <v>240.9968149183972</v>
       </c>
       <c r="S44" t="n">
-        <v>240.9968149183972</v>
+        <v>227.5093375700639</v>
       </c>
       <c r="T44" t="n">
-        <v>240.9968149183972</v>
+        <v>222.4644104852103</v>
       </c>
       <c r="U44" t="n">
         <v>240.9968149183972</v>
@@ -30776,19 +30776,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7444246896586</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>125.7337882414754</v>
@@ -30797,7 +30797,7 @@
         <v>107.3572203790713</v>
       </c>
       <c r="J45" t="n">
-        <v>52.45818464705462</v>
+        <v>52.45818464705464</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,28 +30818,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.846506480668484</v>
       </c>
       <c r="R45" t="n">
         <v>134.7086383504341</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5874518930719</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.9701989459033</v>
       </c>
       <c r="U45" t="n">
-        <v>38.08685296677336</v>
+        <v>237.2280576689302</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>74.13683827068442</v>
       </c>
       <c r="W45" t="n">
         <v>240.9968149183972</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>240.9968149183972</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
@@ -30861,7 +30861,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>181.434524956713</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30879,22 +30879,22 @@
         <v>120.2289512774728</v>
       </c>
       <c r="K46" t="n">
-        <v>67.01246855587063</v>
+        <v>67.01246855587064</v>
       </c>
       <c r="L46" t="n">
-        <v>32.12940745055724</v>
+        <v>32.12940745055725</v>
       </c>
       <c r="M46" t="n">
-        <v>25.19323846374669</v>
+        <v>25.1932384637467</v>
       </c>
       <c r="N46" t="n">
-        <v>16.49709222984358</v>
+        <v>16.49709222984359</v>
       </c>
       <c r="O46" t="n">
-        <v>37.45757960830502</v>
+        <v>140.5958576062222</v>
       </c>
       <c r="P46" t="n">
-        <v>58.46036931460876</v>
+        <v>58.46036931460877</v>
       </c>
       <c r="Q46" t="n">
         <v>127.204364743505</v>
@@ -31753,31 +31753,31 @@
         <v>0.4070551490069148</v>
       </c>
       <c r="H11" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I11" t="n">
         <v>15.6929936320891</v>
       </c>
       <c r="J11" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K11" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L11" t="n">
         <v>64.23635542690876</v>
       </c>
       <c r="M11" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N11" t="n">
         <v>72.63186787517638</v>
       </c>
       <c r="O11" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P11" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q11" t="n">
         <v>43.9573767223205</v>
@@ -31786,10 +31786,10 @@
         <v>25.56967800380563</v>
       </c>
       <c r="S11" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T11" t="n">
-        <v>1.781883914777771</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U11" t="n">
         <v>0.03256441192055318</v>
@@ -31835,43 +31835,43 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I12" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J12" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K12" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L12" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M12" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N12" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O12" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P12" t="n">
         <v>41.58904538225414</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R12" t="n">
         <v>13.522314447866</v>
       </c>
       <c r="S12" t="n">
-        <v>4.045422554868074</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,16 +31914,16 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I13" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J13" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K13" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L13" t="n">
-        <v>27.14629101362621</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M13" t="n">
         <v>28.62195768301067</v>
@@ -31935,7 +31935,7 @@
         <v>25.80839749785131</v>
       </c>
       <c r="P13" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q13" t="n">
         <v>15.28950021563599</v>
@@ -31947,10 +31947,10 @@
         <v>3.18206187312715</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,31 +31990,31 @@
         <v>0.4070551490069148</v>
       </c>
       <c r="H14" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I14" t="n">
         <v>15.6929936320891</v>
       </c>
       <c r="J14" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K14" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L14" t="n">
         <v>64.23635542690876</v>
       </c>
       <c r="M14" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N14" t="n">
         <v>72.63186787517638</v>
       </c>
       <c r="O14" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P14" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q14" t="n">
         <v>43.9573767223205</v>
@@ -32023,10 +32023,10 @@
         <v>25.56967800380563</v>
       </c>
       <c r="S14" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T14" t="n">
-        <v>1.781883914777771</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U14" t="n">
         <v>0.03256441192055318</v>
@@ -32072,43 +32072,43 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I15" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J15" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K15" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L15" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M15" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N15" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O15" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P15" t="n">
         <v>41.58904538225414</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R15" t="n">
         <v>13.522314447866</v>
       </c>
       <c r="S15" t="n">
-        <v>4.045422554868074</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,16 +32151,16 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I16" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J16" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K16" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L16" t="n">
-        <v>27.14629101362621</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M16" t="n">
         <v>28.62195768301067</v>
@@ -32172,7 +32172,7 @@
         <v>25.80839749785131</v>
       </c>
       <c r="P16" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q16" t="n">
         <v>15.28950021563599</v>
@@ -32184,10 +32184,10 @@
         <v>3.18206187312715</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,31 +32227,31 @@
         <v>0.4070551490069148</v>
       </c>
       <c r="H17" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I17" t="n">
         <v>15.6929936320891</v>
       </c>
       <c r="J17" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K17" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L17" t="n">
         <v>64.23635542690876</v>
       </c>
       <c r="M17" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N17" t="n">
         <v>72.63186787517638</v>
       </c>
       <c r="O17" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P17" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q17" t="n">
         <v>43.9573767223205</v>
@@ -32260,10 +32260,10 @@
         <v>25.56967800380563</v>
       </c>
       <c r="S17" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T17" t="n">
-        <v>1.781883914777771</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U17" t="n">
         <v>0.03256441192055318</v>
@@ -32309,43 +32309,43 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I18" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J18" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K18" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L18" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M18" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N18" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O18" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P18" t="n">
         <v>41.58904538225414</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R18" t="n">
         <v>13.522314447866</v>
       </c>
       <c r="S18" t="n">
-        <v>4.045422554868074</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,16 +32388,16 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I19" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J19" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K19" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L19" t="n">
-        <v>27.14629101362621</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M19" t="n">
         <v>28.62195768301067</v>
@@ -32409,7 +32409,7 @@
         <v>25.80839749785131</v>
       </c>
       <c r="P19" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q19" t="n">
         <v>15.28950021563599</v>
@@ -32421,10 +32421,10 @@
         <v>3.18206187312715</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,31 +32464,31 @@
         <v>0.4070551490069148</v>
       </c>
       <c r="H20" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I20" t="n">
         <v>15.6929936320891</v>
       </c>
       <c r="J20" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K20" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L20" t="n">
         <v>64.23635542690876</v>
       </c>
       <c r="M20" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N20" t="n">
         <v>72.63186787517638</v>
       </c>
       <c r="O20" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P20" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q20" t="n">
         <v>43.9573767223205</v>
@@ -32497,10 +32497,10 @@
         <v>25.56967800380563</v>
       </c>
       <c r="S20" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T20" t="n">
-        <v>1.781883914777771</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U20" t="n">
         <v>0.03256441192055318</v>
@@ -32546,43 +32546,43 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I21" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J21" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K21" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L21" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M21" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N21" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O21" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P21" t="n">
         <v>41.58904538225414</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R21" t="n">
         <v>13.522314447866</v>
       </c>
       <c r="S21" t="n">
-        <v>4.045422554868074</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,16 +32625,16 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I22" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J22" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K22" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L22" t="n">
-        <v>27.14629101362621</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M22" t="n">
         <v>28.62195768301067</v>
@@ -32646,7 +32646,7 @@
         <v>25.80839749785131</v>
       </c>
       <c r="P22" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q22" t="n">
         <v>15.28950021563599</v>
@@ -32658,10 +32658,10 @@
         <v>3.18206187312715</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,31 +32701,31 @@
         <v>0.4070551490069148</v>
       </c>
       <c r="H23" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I23" t="n">
         <v>15.6929936320891</v>
       </c>
       <c r="J23" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K23" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L23" t="n">
         <v>64.23635542690876</v>
       </c>
       <c r="M23" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N23" t="n">
         <v>72.63186787517638</v>
       </c>
       <c r="O23" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P23" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q23" t="n">
         <v>43.9573767223205</v>
@@ -32734,10 +32734,10 @@
         <v>25.56967800380563</v>
       </c>
       <c r="S23" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T23" t="n">
-        <v>1.781883914777771</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U23" t="n">
         <v>0.03256441192055318</v>
@@ -32783,43 +32783,43 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I24" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J24" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K24" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L24" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M24" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N24" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O24" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P24" t="n">
         <v>41.58904538225414</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R24" t="n">
         <v>13.522314447866</v>
       </c>
       <c r="S24" t="n">
-        <v>4.045422554868074</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,16 +32862,16 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I25" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J25" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K25" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L25" t="n">
-        <v>27.14629101362621</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M25" t="n">
         <v>28.62195768301067</v>
@@ -32883,7 +32883,7 @@
         <v>25.80839749785131</v>
       </c>
       <c r="P25" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q25" t="n">
         <v>15.28950021563599</v>
@@ -32895,10 +32895,10 @@
         <v>3.18206187312715</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,31 +32938,31 @@
         <v>0.4070551490069148</v>
       </c>
       <c r="H26" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I26" t="n">
         <v>15.6929936320891</v>
       </c>
       <c r="J26" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K26" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L26" t="n">
         <v>64.23635542690876</v>
       </c>
       <c r="M26" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N26" t="n">
         <v>72.63186787517638</v>
       </c>
       <c r="O26" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P26" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q26" t="n">
         <v>43.9573767223205</v>
@@ -32971,10 +32971,10 @@
         <v>25.56967800380563</v>
       </c>
       <c r="S26" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T26" t="n">
-        <v>1.781883914777771</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U26" t="n">
         <v>0.03256441192055318</v>
@@ -33020,43 +33020,43 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I27" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J27" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K27" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L27" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M27" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N27" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O27" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P27" t="n">
         <v>41.58904538225414</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R27" t="n">
         <v>13.522314447866</v>
       </c>
       <c r="S27" t="n">
-        <v>4.045422554868074</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,16 +33099,16 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I28" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J28" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K28" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L28" t="n">
-        <v>27.14629101362621</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M28" t="n">
         <v>28.62195768301067</v>
@@ -33120,7 +33120,7 @@
         <v>25.80839749785131</v>
       </c>
       <c r="P28" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q28" t="n">
         <v>15.28950021563599</v>
@@ -33132,10 +33132,10 @@
         <v>3.18206187312715</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,31 +33175,31 @@
         <v>0.4070551490069148</v>
       </c>
       <c r="H29" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I29" t="n">
         <v>15.6929936320891</v>
       </c>
       <c r="J29" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K29" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L29" t="n">
         <v>64.23635542690876</v>
       </c>
       <c r="M29" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N29" t="n">
         <v>72.63186787517638</v>
       </c>
       <c r="O29" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P29" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q29" t="n">
         <v>43.9573767223205</v>
@@ -33208,10 +33208,10 @@
         <v>25.56967800380563</v>
       </c>
       <c r="S29" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T29" t="n">
-        <v>1.781883914777771</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U29" t="n">
         <v>0.03256441192055318</v>
@@ -33257,43 +33257,43 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I30" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J30" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K30" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L30" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M30" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N30" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O30" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P30" t="n">
         <v>41.58904538225414</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R30" t="n">
         <v>13.522314447866</v>
       </c>
       <c r="S30" t="n">
-        <v>4.045422554868074</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,16 +33336,16 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I31" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J31" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K31" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L31" t="n">
-        <v>27.14629101362621</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M31" t="n">
         <v>28.62195768301067</v>
@@ -33357,7 +33357,7 @@
         <v>25.80839749785131</v>
       </c>
       <c r="P31" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q31" t="n">
         <v>15.28950021563599</v>
@@ -33369,10 +33369,10 @@
         <v>3.18206187312715</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,31 +33412,31 @@
         <v>0.4070551490069148</v>
       </c>
       <c r="H32" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I32" t="n">
         <v>15.6929936320891</v>
       </c>
       <c r="J32" t="n">
-        <v>34.54829695302567</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K32" t="n">
-        <v>51.77894141048838</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L32" t="n">
         <v>64.23635542690876</v>
       </c>
       <c r="M32" t="n">
-        <v>71.47532243306048</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N32" t="n">
         <v>72.63186787517638</v>
       </c>
       <c r="O32" t="n">
-        <v>68.58421323723887</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P32" t="n">
-        <v>58.53503924613065</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q32" t="n">
         <v>43.9573767223205</v>
@@ -33445,10 +33445,10 @@
         <v>25.56967800380563</v>
       </c>
       <c r="S32" t="n">
-        <v>9.275769207995081</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T32" t="n">
-        <v>1.781883914777771</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U32" t="n">
         <v>0.03256441192055318</v>
@@ -33494,43 +33494,43 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I33" t="n">
-        <v>7.498599068645667</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J33" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K33" t="n">
-        <v>35.16890724972325</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L33" t="n">
-        <v>47.288935909975</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M33" t="n">
-        <v>55.18395773193122</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N33" t="n">
-        <v>56.64451288810438</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O33" t="n">
-        <v>51.81866288876706</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P33" t="n">
         <v>41.58904538225414</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R33" t="n">
         <v>13.522314447866</v>
       </c>
       <c r="S33" t="n">
-        <v>4.045422554868074</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8778614705841229</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,16 +33573,16 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I34" t="n">
-        <v>5.491007134222546</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J34" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K34" t="n">
         <v>21.21374582084767</v>
       </c>
       <c r="L34" t="n">
-        <v>27.14629101362621</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M34" t="n">
         <v>28.62195768301067</v>
@@ -33594,7 +33594,7 @@
         <v>25.80839749785131</v>
       </c>
       <c r="P34" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q34" t="n">
         <v>15.28950021563599</v>
@@ -33606,10 +33606,10 @@
         <v>3.18206187312715</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7801612312831303</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009959505080210188</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4070551490069153</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H35" t="n">
-        <v>4.168753544767072</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I35" t="n">
-        <v>15.69299363208912</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J35" t="n">
-        <v>34.54829695302571</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K35" t="n">
-        <v>51.77894141048844</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L35" t="n">
-        <v>64.23635542690884</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M35" t="n">
-        <v>71.47532243306057</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N35" t="n">
-        <v>72.63186787517647</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O35" t="n">
-        <v>68.58421323723896</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P35" t="n">
-        <v>58.53503924613072</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.95737672232055</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R35" t="n">
-        <v>25.56967800380566</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S35" t="n">
-        <v>9.275769207995092</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T35" t="n">
-        <v>1.781883914777773</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03256441192055322</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2177937054332756</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H36" t="n">
-        <v>2.103428681421373</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I36" t="n">
-        <v>7.498599068645675</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J36" t="n">
-        <v>20.57672898569382</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K36" t="n">
-        <v>35.16890724972329</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L36" t="n">
-        <v>47.28893590997505</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M36" t="n">
-        <v>55.18395773193128</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N36" t="n">
-        <v>56.64451288810444</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O36" t="n">
-        <v>51.81866288876712</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P36" t="n">
-        <v>41.58904538225419</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.80117545144761</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R36" t="n">
-        <v>13.52231444786601</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S36" t="n">
-        <v>4.045422554868078</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8778614705841239</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01432853325218919</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1825909264705201</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H37" t="n">
-        <v>1.623399328074262</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I37" t="n">
-        <v>5.491007134222552</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J37" t="n">
-        <v>12.90917850146577</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K37" t="n">
-        <v>21.2137458208477</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L37" t="n">
-        <v>27.14629101362624</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M37" t="n">
-        <v>28.62195768301071</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N37" t="n">
-        <v>27.9413915025297</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O37" t="n">
-        <v>25.80839749785134</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P37" t="n">
-        <v>22.08354259785271</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.28950021563601</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R37" t="n">
-        <v>8.209952021119928</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S37" t="n">
-        <v>3.182061873127154</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7801612312831312</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009959505080210198</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4070551490069153</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H38" t="n">
-        <v>4.168753544767072</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I38" t="n">
-        <v>15.69299363208912</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J38" t="n">
-        <v>34.54829695302571</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K38" t="n">
-        <v>51.77894141048844</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L38" t="n">
-        <v>64.23635542690884</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M38" t="n">
-        <v>71.47532243306057</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N38" t="n">
-        <v>72.63186787517647</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O38" t="n">
-        <v>68.58421323723896</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P38" t="n">
-        <v>58.53503924613072</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.95737672232055</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R38" t="n">
-        <v>25.56967800380566</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S38" t="n">
-        <v>9.275769207995092</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T38" t="n">
-        <v>1.781883914777773</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03256441192055322</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2177937054332756</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H39" t="n">
-        <v>2.103428681421373</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I39" t="n">
-        <v>7.498599068645675</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J39" t="n">
-        <v>20.57672898569382</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K39" t="n">
-        <v>35.16890724972329</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L39" t="n">
-        <v>47.28893590997505</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M39" t="n">
-        <v>55.18395773193128</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N39" t="n">
-        <v>56.64451288810444</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O39" t="n">
-        <v>51.81866288876712</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P39" t="n">
-        <v>41.58904538225419</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.80117545144761</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R39" t="n">
-        <v>13.52231444786601</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S39" t="n">
-        <v>4.045422554868078</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8778614705841239</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01432853325218919</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1825909264705201</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H40" t="n">
-        <v>1.623399328074262</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I40" t="n">
-        <v>5.491007134222552</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J40" t="n">
-        <v>12.90917850146577</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K40" t="n">
-        <v>21.2137458208477</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L40" t="n">
-        <v>27.14629101362624</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M40" t="n">
-        <v>28.62195768301071</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N40" t="n">
-        <v>27.9413915025297</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O40" t="n">
-        <v>25.80839749785134</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P40" t="n">
-        <v>22.08354259785271</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.28950021563601</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R40" t="n">
-        <v>8.209952021119928</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S40" t="n">
-        <v>3.182061873127154</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7801612312831312</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009959505080210198</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4070551490069153</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H41" t="n">
-        <v>4.168753544767072</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I41" t="n">
-        <v>15.69299363208912</v>
+        <v>15.6929936320891</v>
       </c>
       <c r="J41" t="n">
-        <v>34.54829695302571</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K41" t="n">
-        <v>51.77894141048844</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L41" t="n">
-        <v>64.23635542690884</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M41" t="n">
-        <v>71.47532243306057</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N41" t="n">
-        <v>72.63186787517647</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O41" t="n">
-        <v>68.58421323723896</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P41" t="n">
-        <v>58.53503924613072</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.95737672232055</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R41" t="n">
-        <v>25.56967800380566</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S41" t="n">
-        <v>9.275769207995092</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T41" t="n">
-        <v>1.781883914777773</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03256441192055322</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2177937054332756</v>
+        <v>0.2177937054332754</v>
       </c>
       <c r="H42" t="n">
-        <v>2.103428681421373</v>
+        <v>2.103428681421371</v>
       </c>
       <c r="I42" t="n">
-        <v>7.498599068645675</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J42" t="n">
-        <v>20.57672898569382</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K42" t="n">
-        <v>35.16890724972329</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L42" t="n">
-        <v>47.28893590997505</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M42" t="n">
-        <v>55.18395773193128</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N42" t="n">
-        <v>56.64451288810444</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O42" t="n">
-        <v>51.81866288876712</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P42" t="n">
-        <v>41.58904538225419</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.80117545144761</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R42" t="n">
-        <v>13.52231444786601</v>
+        <v>13.522314447866</v>
       </c>
       <c r="S42" t="n">
-        <v>4.045422554868078</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8778614705841239</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01432853325218919</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1825909264705201</v>
+        <v>0.1825909264705199</v>
       </c>
       <c r="H43" t="n">
-        <v>1.623399328074262</v>
+        <v>1.62339932807426</v>
       </c>
       <c r="I43" t="n">
-        <v>5.491007134222552</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J43" t="n">
-        <v>12.90917850146577</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K43" t="n">
-        <v>21.2137458208477</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L43" t="n">
-        <v>27.14629101362624</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M43" t="n">
-        <v>28.62195768301071</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N43" t="n">
-        <v>27.9413915025297</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O43" t="n">
-        <v>25.80839749785134</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P43" t="n">
-        <v>22.08354259785271</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.28950021563601</v>
+        <v>15.28950021563599</v>
       </c>
       <c r="R43" t="n">
-        <v>8.209952021119928</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S43" t="n">
-        <v>3.182061873127154</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7801612312831312</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009959505080210198</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4070551490069149</v>
+        <v>0.4070551490069148</v>
       </c>
       <c r="H44" t="n">
-        <v>4.168753544767068</v>
+        <v>4.168753544767067</v>
       </c>
       <c r="I44" t="n">
         <v>15.6929936320891</v>
       </c>
       <c r="J44" t="n">
-        <v>34.54829695302568</v>
+        <v>34.54829695302566</v>
       </c>
       <c r="K44" t="n">
-        <v>51.77894141048839</v>
+        <v>51.77894141048837</v>
       </c>
       <c r="L44" t="n">
-        <v>64.23635542690879</v>
+        <v>64.23635542690876</v>
       </c>
       <c r="M44" t="n">
-        <v>71.4753224330605</v>
+        <v>71.47532243306047</v>
       </c>
       <c r="N44" t="n">
-        <v>72.63186787517641</v>
+        <v>72.63186787517638</v>
       </c>
       <c r="O44" t="n">
-        <v>68.58421323723888</v>
+        <v>68.58421323723886</v>
       </c>
       <c r="P44" t="n">
-        <v>58.53503924613067</v>
+        <v>58.53503924613064</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.95737672232052</v>
+        <v>43.9573767223205</v>
       </c>
       <c r="R44" t="n">
-        <v>25.56967800380564</v>
+        <v>25.56967800380563</v>
       </c>
       <c r="S44" t="n">
-        <v>9.275769207995083</v>
+        <v>9.275769207995079</v>
       </c>
       <c r="T44" t="n">
-        <v>1.781883914777771</v>
+        <v>1.78188391477777</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03256441192055319</v>
+        <v>0.03256441192055318</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,43 +34442,43 @@
         <v>2.103428681421371</v>
       </c>
       <c r="I45" t="n">
-        <v>7.498599068645669</v>
+        <v>7.498599068645666</v>
       </c>
       <c r="J45" t="n">
-        <v>20.5767289856938</v>
+        <v>20.57672898569379</v>
       </c>
       <c r="K45" t="n">
-        <v>35.16890724972326</v>
+        <v>35.16890724972324</v>
       </c>
       <c r="L45" t="n">
-        <v>47.28893590997501</v>
+        <v>47.28893590997499</v>
       </c>
       <c r="M45" t="n">
-        <v>55.18395773193123</v>
+        <v>55.18395773193121</v>
       </c>
       <c r="N45" t="n">
-        <v>56.64451288810439</v>
+        <v>56.64451288810437</v>
       </c>
       <c r="O45" t="n">
-        <v>51.81866288876708</v>
+        <v>51.81866288876705</v>
       </c>
       <c r="P45" t="n">
-        <v>41.58904538225416</v>
+        <v>41.58904538225414</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.80117545144758</v>
+        <v>27.80117545144757</v>
       </c>
       <c r="R45" t="n">
         <v>13.522314447866</v>
       </c>
       <c r="S45" t="n">
-        <v>4.045422554868074</v>
+        <v>4.045422554868073</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8778614705841231</v>
+        <v>0.8778614705841228</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01432853325218918</v>
+        <v>0.01432853325218917</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,43 +34521,43 @@
         <v>1.62339932807426</v>
       </c>
       <c r="I46" t="n">
-        <v>5.491007134222547</v>
+        <v>5.491007134222545</v>
       </c>
       <c r="J46" t="n">
-        <v>12.90917850146576</v>
+        <v>12.90917850146575</v>
       </c>
       <c r="K46" t="n">
-        <v>21.21374582084768</v>
+        <v>21.21374582084767</v>
       </c>
       <c r="L46" t="n">
-        <v>27.14629101362621</v>
+        <v>27.1462910136262</v>
       </c>
       <c r="M46" t="n">
-        <v>28.62195768301068</v>
+        <v>28.62195768301067</v>
       </c>
       <c r="N46" t="n">
-        <v>27.94139150252968</v>
+        <v>27.94139150252967</v>
       </c>
       <c r="O46" t="n">
-        <v>25.80839749785132</v>
+        <v>25.80839749785131</v>
       </c>
       <c r="P46" t="n">
-        <v>22.08354259785269</v>
+        <v>22.08354259785268</v>
       </c>
       <c r="Q46" t="n">
         <v>15.28950021563599</v>
       </c>
       <c r="R46" t="n">
-        <v>8.209952021119923</v>
+        <v>8.20995202111992</v>
       </c>
       <c r="S46" t="n">
-        <v>3.182061873127151</v>
+        <v>3.18206187312715</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7801612312831305</v>
+        <v>0.7801612312831302</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009959505080210191</v>
+        <v>0.009959505080210186</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>81.50027203366434</v>
+        <v>101.5765493865273</v>
       </c>
       <c r="K11" t="n">
-        <v>171.645199806282</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>188.5623770505816</v>
       </c>
       <c r="M11" t="n">
-        <v>81.73768759914324</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N11" t="n">
+        <v>97.53763686679368</v>
+      </c>
+      <c r="O11" t="n">
         <v>188.5623770505816</v>
       </c>
-      <c r="O11" t="n">
-        <v>34.62291276104004</v>
-      </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>88.6541983476655</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>118.55713633517</v>
       </c>
       <c r="M12" t="n">
-        <v>183.5573176570688</v>
+        <v>183.557317657069</v>
       </c>
       <c r="N12" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O12" t="n">
         <v>133.0740275578656</v>
@@ -35541,13 +35541,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7127286595870714</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.87246835258281</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>33.14699907384446</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -35556,25 +35556,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9.629025123080718</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>12.50659175818955</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>13.48121398879829</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>20.96284608739913</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>146.2002418739979</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>51.18658846243205</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>119.8692800099464</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>51.12528458105015</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.5765493865273</v>
+        <v>30.62791513356711</v>
       </c>
       <c r="K14" t="n">
-        <v>129.5995066674069</v>
+        <v>171.645199806282</v>
       </c>
       <c r="L14" t="n">
-        <v>47.24579619221619</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="M14" t="n">
-        <v>81.73768759914324</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N14" t="n">
-        <v>188.5623770505816</v>
+        <v>76.14873730630119</v>
       </c>
       <c r="O14" t="n">
-        <v>34.62291276104004</v>
+        <v>34.62291276104003</v>
       </c>
       <c r="P14" t="n">
-        <v>163.2859966443776</v>
+        <v>163.2859966443777</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>188.5623770505816</v>
       </c>
       <c r="O15" t="n">
-        <v>133.0740275578657</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P15" t="n">
         <v>84.50414241545053</v>
@@ -35781,13 +35781,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>11.87246835258273</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>36.65350811233009</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.10069804708232</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>69.79966844597401</v>
+        <v>35.5542732417184</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -35817,13 +35817,13 @@
         <v>161.8325570947115</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>140.8720697162501</v>
       </c>
       <c r="P16" t="n">
-        <v>119.8692800099463</v>
+        <v>119.8692800099464</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.12528458105009</v>
+        <v>51.12528458105015</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,43 +35878,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>56.42777687366396</v>
       </c>
       <c r="J17" t="n">
-        <v>188.5623770505816</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>188.5623770505816</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M17" t="n">
-        <v>81.73768759914324</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N17" t="n">
         <v>76.14873730630119</v>
       </c>
       <c r="O17" t="n">
+        <v>34.62291276104003</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>188.5623770505816</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>102.5641537403182</v>
       </c>
       <c r="S17" t="n">
-        <v>23.05727024410365</v>
+        <v>69.91525422199724</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>42.1320533752564</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>47.27407718077492</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35966,13 +35966,13 @@
         <v>38.37582528515625</v>
       </c>
       <c r="L18" t="n">
-        <v>118.55713633517</v>
+        <v>118.5571363351702</v>
       </c>
       <c r="M18" t="n">
         <v>183.5573176570688</v>
       </c>
       <c r="N18" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O18" t="n">
         <v>133.0740275578656</v>
@@ -36115,43 +36115,43 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.42777687366396</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>69.73602580872365</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>188.5623770505816</v>
       </c>
-      <c r="L20" t="n">
-        <v>47.24579619221619</v>
-      </c>
       <c r="M20" t="n">
-        <v>81.73768759914324</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N20" t="n">
         <v>76.14873730630119</v>
       </c>
       <c r="O20" t="n">
-        <v>34.62291276104004</v>
+        <v>34.62291276104003</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>118.1195223150602</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.5641537403183</v>
       </c>
       <c r="S20" t="n">
-        <v>69.91525422199724</v>
+        <v>69.9152542219973</v>
       </c>
       <c r="T20" t="n">
-        <v>74.96018130685088</v>
+        <v>74.96018130685094</v>
       </c>
       <c r="U20" t="n">
-        <v>47.27407718077492</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.37582528515625</v>
+        <v>38.37582528515641</v>
       </c>
       <c r="L21" t="n">
         <v>118.55713633517</v>
@@ -36215,7 +36215,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P21" t="n">
-        <v>84.5041424154506</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,28 +36352,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.42777687366402</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="L23" t="n">
-        <v>47.24579619221619</v>
+        <v>107.0814803116479</v>
       </c>
       <c r="M23" t="n">
-        <v>81.73768759914324</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N23" t="n">
         <v>76.14873730630119</v>
       </c>
       <c r="O23" t="n">
-        <v>188.5623770505817</v>
+        <v>34.62291276104003</v>
       </c>
       <c r="P23" t="n">
-        <v>174.2741927917608</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36382,13 +36382,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.9152542219973</v>
       </c>
       <c r="T23" t="n">
-        <v>74.96018130685094</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>47.27407718077497</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36446,13 +36446,13 @@
         <v>183.5573176570688</v>
       </c>
       <c r="N24" t="n">
-        <v>188.5623770505817</v>
+        <v>188.5623770505816</v>
       </c>
       <c r="O24" t="n">
         <v>133.0740275578656</v>
       </c>
       <c r="P24" t="n">
-        <v>84.50414241545053</v>
+        <v>84.5041424154506</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36601,13 +36601,13 @@
         <v>260.7127728602489</v>
       </c>
       <c r="M26" t="n">
-        <v>295.204664267176</v>
+        <v>295.2046642671759</v>
       </c>
       <c r="N26" t="n">
         <v>289.6157139743339</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0898894290727</v>
+        <v>248.0898894290729</v>
       </c>
       <c r="P26" t="n">
         <v>198.4233239878553</v>
@@ -36616,7 +36616,7 @@
         <v>123.7915256911431</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60653861628981</v>
+        <v>18.60653861628979</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>68.28432641732201</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>9.404193906452994</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36759,16 +36759,16 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>35.72524323900981</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>196.9698844381891</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>155.0066073534239</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36838,13 +36838,13 @@
         <v>260.7127728602489</v>
       </c>
       <c r="M29" t="n">
-        <v>295.204664267176</v>
+        <v>295.2046642671759</v>
       </c>
       <c r="N29" t="n">
         <v>289.6157139743339</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0898894290728</v>
+        <v>248.0898894290727</v>
       </c>
       <c r="P29" t="n">
         <v>198.4233239878553</v>
@@ -36853,7 +36853,7 @@
         <v>123.7915256911431</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60653861628984</v>
+        <v>18.60653861628979</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36963,19 +36963,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.85005600306465</v>
+        <v>35.85005600306462</v>
       </c>
       <c r="C31" t="n">
-        <v>47.00979569606039</v>
+        <v>47.00979569606037</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>71.79083545580772</v>
       </c>
       <c r="F31" t="n">
-        <v>74.54009444958609</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>75.29518152848759</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>78.04444052226619</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37084,13 +37084,13 @@
         <v>248.0898894290728</v>
       </c>
       <c r="P32" t="n">
-        <v>198.4233239878553</v>
+        <v>198.4233239878555</v>
       </c>
       <c r="Q32" t="n">
         <v>123.7915256911431</v>
       </c>
       <c r="R32" t="n">
-        <v>18.60653861628984</v>
+        <v>18.60653861628982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37203,10 +37203,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.00979569606039</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.28432641732203</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37215,7 +37215,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>44.7663524665583</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>35.72524323900961</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>196.9698844381891</v>
       </c>
       <c r="O34" t="n">
-        <v>72.63465309725801</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.06286192646009</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>195.3065769068295</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>24.54846116837012</v>
+        <v>260.458394474629</v>
       </c>
       <c r="L35" t="n">
-        <v>260.458394474629</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M35" t="n">
-        <v>260.458394474629</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N35" t="n">
-        <v>76.14873730630127</v>
+        <v>76.14873730630119</v>
       </c>
       <c r="O35" t="n">
-        <v>34.62291276104013</v>
+        <v>34.62291276104003</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>257.0160241646798</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>125.3767865202496</v>
       </c>
       <c r="R35" t="n">
-        <v>77.19923879311439</v>
+        <v>77.19923879311436</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.3758252851563</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L36" t="n">
-        <v>118.5571363351701</v>
+        <v>118.55713633517</v>
       </c>
       <c r="M36" t="n">
-        <v>183.5573176570689</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N36" t="n">
-        <v>207.0214827210605</v>
+        <v>207.0214827210604</v>
       </c>
       <c r="O36" t="n">
-        <v>133.0740275578657</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P36" t="n">
-        <v>84.50414241545059</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>35.55545571552469</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37491,7 +37491,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>35.55545571552469</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.06286192646009</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>195.3065769068295</v>
+        <v>128.0722434376727</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>260.458394474629</v>
       </c>
-      <c r="L38" t="n">
-        <v>47.24579619221628</v>
-      </c>
       <c r="M38" t="n">
-        <v>81.73768759914333</v>
+        <v>81.73768759914323</v>
       </c>
       <c r="N38" t="n">
-        <v>76.14873730630127</v>
+        <v>76.14873730630119</v>
       </c>
       <c r="O38" t="n">
-        <v>223.2951841310006</v>
+        <v>34.62291276104003</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>257.0160241646798</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>77.1992387931143</v>
       </c>
       <c r="S38" t="n">
-        <v>44.55033927479337</v>
+        <v>44.5503392747933</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59526635964701</v>
+        <v>49.59526635964695</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90916223357103</v>
+        <v>21.90916223357097</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.3758252851563</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L39" t="n">
-        <v>118.5571363351701</v>
+        <v>118.55713633517</v>
       </c>
       <c r="M39" t="n">
-        <v>183.5573176570689</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N39" t="n">
-        <v>207.0214827210605</v>
+        <v>207.0214827210604</v>
       </c>
       <c r="O39" t="n">
-        <v>133.0740275578657</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P39" t="n">
-        <v>84.50414241545059</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>35.55545571552469</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>35.55545571552481</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>234.3123654001241</v>
       </c>
       <c r="L41" t="n">
-        <v>288.2426111106135</v>
+        <v>47.24579619221619</v>
       </c>
       <c r="M41" t="n">
-        <v>81.73768759914333</v>
+        <v>149.7651165584427</v>
       </c>
       <c r="N41" t="n">
-        <v>317.1455522246985</v>
+        <v>317.1455522246984</v>
       </c>
       <c r="O41" t="n">
-        <v>34.62291276104013</v>
+        <v>34.62291276104003</v>
       </c>
       <c r="P41" t="n">
         <v>225.9531622382198</v>
       </c>
       <c r="Q41" t="n">
-        <v>24.48835484906363</v>
+        <v>151.3213639415076</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>46.13637686665429</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.3758252851563</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L42" t="n">
-        <v>118.5571363351701</v>
+        <v>118.55713633517</v>
       </c>
       <c r="M42" t="n">
-        <v>183.5573176570689</v>
+        <v>183.5573176570688</v>
       </c>
       <c r="N42" t="n">
-        <v>207.0214827210605</v>
+        <v>207.0214827210604</v>
       </c>
       <c r="O42" t="n">
-        <v>133.0740275578657</v>
+        <v>133.0740275578656</v>
       </c>
       <c r="P42" t="n">
-        <v>84.50414241545059</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>63.37989425342911</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>39.75838374448803</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>79.28273589368838</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>23.85554210422879</v>
       </c>
     </row>
     <row r="44">
@@ -38020,31 +38020,31 @@
         <v>234.3123654001241</v>
       </c>
       <c r="L44" t="n">
-        <v>47.24579619221622</v>
+        <v>288.2426111106134</v>
       </c>
       <c r="M44" t="n">
-        <v>81.73768759914326</v>
+        <v>153.2538683114524</v>
       </c>
       <c r="N44" t="n">
-        <v>130.6886889172672</v>
+        <v>76.14873730630119</v>
       </c>
       <c r="O44" t="n">
         <v>275.6197276794372</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9531622382198</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>151.3213639415076</v>
       </c>
       <c r="R44" t="n">
-        <v>46.1363768666543</v>
+        <v>46.13637686665429</v>
       </c>
       <c r="S44" t="n">
-        <v>13.48747734833329</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.53240443318693</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.37582528515627</v>
+        <v>38.37582528515625</v>
       </c>
       <c r="L45" t="n">
         <v>118.55713633517</v>
@@ -38111,7 +38111,7 @@
         <v>133.0740275578656</v>
       </c>
       <c r="P45" t="n">
-        <v>84.50414241545054</v>
+        <v>84.50414241545053</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>63.37989425342911</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>39.75838374448803</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>103.1382779979172</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
